--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3197468.547398251</v>
+        <v>-3198291.96249794</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2731257.16873938</v>
+        <v>2731257.168739378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.5096686531243404</v>
+      </c>
+      <c r="U8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.5096686531243404</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S9" t="n">
         <v>11.94294668035388</v>
@@ -1266,7 +1266,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="U9" t="n">
-        <v>11.94294668035388</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>305.1334033542744</v>
       </c>
       <c r="C11" t="n">
-        <v>293.1447203119561</v>
+        <v>140.1603558003538</v>
       </c>
       <c r="D11" t="n">
-        <v>284.1260243564841</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>305.8681619263896</v>
       </c>
       <c r="F11" t="n">
-        <v>325.0399780143668</v>
+        <v>325.0399780143667</v>
       </c>
       <c r="G11" t="n">
         <v>326.4544948093649</v>
       </c>
       <c r="H11" t="n">
-        <v>239.2107011623955</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>66.12017415851106</v>
+        <v>66.12017415851105</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.35315430195395</v>
+        <v>88.5659441008892</v>
       </c>
       <c r="T11" t="n">
         <v>134.8748230868716</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>293.240138305157</v>
       </c>
       <c r="Y11" t="n">
-        <v>304.6367361013558</v>
+        <v>304.6367361013557</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S12" t="n">
         <v>146.1160054094308</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.75011422897144</v>
+        <v>96.75011422897143</v>
       </c>
       <c r="C13" t="n">
-        <v>82.95010907437192</v>
+        <v>82.95010907437191</v>
       </c>
       <c r="D13" t="n">
-        <v>66.57147347195031</v>
+        <v>66.5714734719503</v>
       </c>
       <c r="E13" t="n">
-        <v>65.51922332772976</v>
+        <v>65.51922332772975</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98614765591607</v>
+        <v>65.98614765591606</v>
       </c>
       <c r="G13" t="n">
-        <v>82.02815649136083</v>
+        <v>82.02815649136082</v>
       </c>
       <c r="H13" t="n">
-        <v>70.74035781437975</v>
+        <v>70.74035781437973</v>
       </c>
       <c r="I13" t="n">
-        <v>50.79357341598948</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>52.59409953341393</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>122.547744390183</v>
+        <v>87.18648064541634</v>
       </c>
       <c r="T13" t="n">
-        <v>144.8832253714184</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>199.3359439534499</v>
+        <v>199.33594395345</v>
       </c>
       <c r="V13" t="n">
-        <v>87.85122526221826</v>
+        <v>173.158250628597</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>198.3251366992103</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>305.1334033542744</v>
       </c>
       <c r="C14" t="n">
-        <v>293.1447203119561</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>139.1609514406645</v>
       </c>
       <c r="E14" t="n">
-        <v>16.65898699874032</v>
+        <v>305.8681619263896</v>
       </c>
       <c r="F14" t="n">
-        <v>325.0399780143668</v>
+        <v>325.0399780143667</v>
       </c>
       <c r="G14" t="n">
         <v>326.4544948093649</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>239.2107011623954</v>
       </c>
       <c r="I14" t="n">
-        <v>66.12017415851106</v>
+        <v>66.12017415851105</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.56594410088918</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>134.8748230868716</v>
       </c>
       <c r="U14" t="n">
         <v>167.3252820663874</v>
@@ -1667,13 +1667,13 @@
         <v>248.6397805944535</v>
       </c>
       <c r="W14" t="n">
-        <v>273.9398800724104</v>
+        <v>273.9398800724103</v>
       </c>
       <c r="X14" t="n">
-        <v>293.240138305157</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>304.6367361013558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S15" t="n">
         <v>146.1160054094308</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.75011422897144</v>
+        <v>96.75011422897143</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95010907437192</v>
+        <v>82.95010907437191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>66.5714734719503</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>82.02815649136083</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>70.74035781437975</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.79357341598948</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.40448718185782</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>122.5477443901828</v>
+        <v>122.547744390183</v>
       </c>
       <c r="T16" t="n">
         <v>144.8832253714184</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>159.3951014316379</v>
       </c>
       <c r="V16" t="n">
         <v>173.158250628597</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>235.8572252488616</v>
+        <v>235.8572252488617</v>
       </c>
       <c r="C17" t="n">
         <v>223.8685422065434</v>
       </c>
       <c r="D17" t="n">
-        <v>214.8498462510713</v>
+        <v>214.8498462510699</v>
       </c>
       <c r="E17" t="n">
         <v>236.5919838209769</v>
       </c>
       <c r="F17" t="n">
-        <v>255.763799908954</v>
+        <v>255.7637999089541</v>
       </c>
       <c r="G17" t="n">
         <v>257.1783167039522</v>
       </c>
       <c r="H17" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.28976599547646</v>
+        <v>19.28976599547651</v>
       </c>
       <c r="T17" t="n">
-        <v>65.59864498145885</v>
+        <v>65.5986449814589</v>
       </c>
       <c r="U17" t="n">
-        <v>98.04910396097463</v>
+        <v>98.04910396097469</v>
       </c>
       <c r="V17" t="n">
-        <v>179.3636024890407</v>
+        <v>179.3636024890408</v>
       </c>
       <c r="W17" t="n">
-        <v>204.6637019669976</v>
+        <v>204.6637019669977</v>
       </c>
       <c r="X17" t="n">
         <v>223.9639601997443</v>
       </c>
       <c r="Y17" t="n">
-        <v>235.360557995943</v>
+        <v>235.3605579959431</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S18" t="n">
         <v>146.1160054094308</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.4739361235587</v>
+        <v>27.47393612355876</v>
       </c>
       <c r="C19" t="n">
-        <v>13.67393096895918</v>
+        <v>13.67393096895924</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.7519783859481</v>
+        <v>42.86658344983994</v>
       </c>
       <c r="H19" t="n">
-        <v>1.464179708967004</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>83.3861713486626</v>
+        <v>53.27156628477034</v>
       </c>
       <c r="T19" t="n">
-        <v>75.60704726600568</v>
+        <v>75.60704726600574</v>
       </c>
       <c r="U19" t="n">
         <v>130.0597658480373</v>
@@ -2065,10 +2065,10 @@
         <v>129.0489585937976</v>
       </c>
       <c r="X19" t="n">
-        <v>74.69406058960067</v>
+        <v>74.69406058960072</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.56892834566835</v>
+        <v>65.56892834566841</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>235.8572252488616</v>
+        <v>235.8572252488617</v>
       </c>
       <c r="C20" t="n">
         <v>223.8685422065434</v>
       </c>
       <c r="D20" t="n">
-        <v>214.8498462510713</v>
+        <v>214.8498462510714</v>
       </c>
       <c r="E20" t="n">
         <v>236.5919838209769</v>
       </c>
       <c r="F20" t="n">
-        <v>255.763799908954</v>
+        <v>255.7637999089541</v>
       </c>
       <c r="G20" t="n">
         <v>257.1783167039522</v>
       </c>
       <c r="H20" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.28976599547646</v>
+        <v>19.28976599547653</v>
       </c>
       <c r="T20" t="n">
-        <v>65.59864498145885</v>
+        <v>65.5986449814589</v>
       </c>
       <c r="U20" t="n">
-        <v>98.04910396097462</v>
+        <v>98.04910396097469</v>
       </c>
       <c r="V20" t="n">
-        <v>179.3636024890407</v>
+        <v>179.3636024890408</v>
       </c>
       <c r="W20" t="n">
-        <v>204.6637019669976</v>
+        <v>204.6637019669977</v>
       </c>
       <c r="X20" t="n">
         <v>223.9639601997443</v>
       </c>
       <c r="Y20" t="n">
-        <v>235.360557995943</v>
+        <v>235.3605579959431</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S21" t="n">
         <v>146.1160054094308</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.4739361235587</v>
+        <v>27.47393612355876</v>
       </c>
       <c r="C22" t="n">
-        <v>13.67393096895918</v>
+        <v>13.67393096895924</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.7519783859481</v>
+        <v>12.75197838594815</v>
       </c>
       <c r="H22" t="n">
-        <v>1.464179708967004</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>18.66702808690973</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.27156628477028</v>
+        <v>53.27156628477034</v>
       </c>
       <c r="T22" t="n">
-        <v>75.60704726600568</v>
+        <v>87.0546242429877</v>
       </c>
       <c r="U22" t="n">
         <v>130.0597658480373</v>
       </c>
       <c r="V22" t="n">
-        <v>133.9966775870766</v>
+        <v>103.8820725231843</v>
       </c>
       <c r="W22" t="n">
         <v>129.0489585937976</v>
       </c>
       <c r="X22" t="n">
-        <v>74.69406058960067</v>
+        <v>74.69406058960072</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.56892834566835</v>
+        <v>65.56892834566841</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>235.8572252488616</v>
+        <v>235.8572252488617</v>
       </c>
       <c r="C23" t="n">
         <v>223.8685422065434</v>
       </c>
       <c r="D23" t="n">
-        <v>214.8498462510713</v>
+        <v>214.8498462510714</v>
       </c>
       <c r="E23" t="n">
         <v>236.5919838209769</v>
       </c>
       <c r="F23" t="n">
-        <v>255.763799908954</v>
+        <v>255.7637999089541</v>
       </c>
       <c r="G23" t="n">
         <v>257.1783167039522</v>
       </c>
       <c r="H23" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.28976599547646</v>
+        <v>19.28976599547653</v>
       </c>
       <c r="T23" t="n">
-        <v>65.59864498145885</v>
+        <v>65.5986449814589</v>
       </c>
       <c r="U23" t="n">
-        <v>98.04910396097462</v>
+        <v>98.04910396097469</v>
       </c>
       <c r="V23" t="n">
-        <v>179.3636024890407</v>
+        <v>179.3636024890408</v>
       </c>
       <c r="W23" t="n">
-        <v>204.6637019669976</v>
+        <v>204.6637019669977</v>
       </c>
       <c r="X23" t="n">
         <v>223.9639601997443</v>
       </c>
       <c r="Y23" t="n">
-        <v>235.360557995943</v>
+        <v>235.3605579959431</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S24" t="n">
         <v>146.1160054094308</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.4739361235587</v>
+        <v>27.47393612355876</v>
       </c>
       <c r="C25" t="n">
-        <v>13.67393096895918</v>
+        <v>13.67393096895924</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.7519783859481</v>
+        <v>12.75197838594815</v>
       </c>
       <c r="H25" t="n">
-        <v>1.464179708967004</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I25" t="n">
-        <v>11.44757697698267</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.66702808690973</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.27156628477028</v>
+        <v>53.27156628477034</v>
       </c>
       <c r="T25" t="n">
-        <v>75.60704726600568</v>
+        <v>75.60704726600574</v>
       </c>
       <c r="U25" t="n">
-        <v>130.0597658480373</v>
+        <v>160.1743709119291</v>
       </c>
       <c r="V25" t="n">
         <v>103.8820725231843</v>
@@ -2539,10 +2539,10 @@
         <v>129.0489585937976</v>
       </c>
       <c r="X25" t="n">
-        <v>74.69406058960067</v>
+        <v>74.69406058960072</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.56892834566835</v>
+        <v>65.56892834566841</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.2749607190965</v>
       </c>
       <c r="I26" t="n">
-        <v>48.18443371521209</v>
+        <v>48.18443371521208</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.63020365759024</v>
+        <v>70.63020365759023</v>
       </c>
       <c r="T26" t="n">
         <v>116.9390826435726</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S27" t="n">
         <v>146.1160054094308</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.81437378567247</v>
+        <v>78.81437378567246</v>
       </c>
       <c r="C28" t="n">
-        <v>65.01436863107295</v>
+        <v>65.01436863107294</v>
       </c>
       <c r="D28" t="n">
-        <v>48.63573302865134</v>
+        <v>48.63573302865133</v>
       </c>
       <c r="E28" t="n">
-        <v>47.58348288443079</v>
+        <v>47.58348288443078</v>
       </c>
       <c r="F28" t="n">
-        <v>48.0504072126171</v>
+        <v>48.05040721261709</v>
       </c>
       <c r="G28" t="n">
-        <v>64.09241604806186</v>
+        <v>64.09241604806185</v>
       </c>
       <c r="H28" t="n">
-        <v>52.80461737108077</v>
+        <v>52.80461737108076</v>
       </c>
       <c r="I28" t="n">
-        <v>32.85783297269052</v>
+        <v>32.8578329726905</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65835909011481</v>
+        <v>34.6583590901148</v>
       </c>
       <c r="S28" t="n">
         <v>104.612003946884</v>
       </c>
       <c r="T28" t="n">
-        <v>126.9474849281195</v>
+        <v>126.9474849281194</v>
       </c>
       <c r="U28" t="n">
         <v>181.400203510151</v>
@@ -2810,7 +2810,7 @@
         <v>221.2749607190965</v>
       </c>
       <c r="I29" t="n">
-        <v>48.18443371521209</v>
+        <v>48.18443371521208</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.63020365759024</v>
+        <v>70.63020365759023</v>
       </c>
       <c r="T29" t="n">
         <v>116.9390826435726</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S30" t="n">
         <v>146.1160054094308</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.81437378567247</v>
+        <v>78.81437378567246</v>
       </c>
       <c r="C31" t="n">
-        <v>65.01436863107295</v>
+        <v>65.01436863107294</v>
       </c>
       <c r="D31" t="n">
-        <v>48.63573302865134</v>
+        <v>48.63573302865133</v>
       </c>
       <c r="E31" t="n">
-        <v>47.58348288443079</v>
+        <v>47.58348288443078</v>
       </c>
       <c r="F31" t="n">
-        <v>48.0504072126171</v>
+        <v>48.05040721261709</v>
       </c>
       <c r="G31" t="n">
-        <v>64.09241604806186</v>
+        <v>64.09241604806185</v>
       </c>
       <c r="H31" t="n">
-        <v>52.80461737108078</v>
+        <v>52.80461737108077</v>
       </c>
       <c r="I31" t="n">
-        <v>32.85783297269052</v>
+        <v>32.8578329726905</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65835909011483</v>
+        <v>34.65835909011479</v>
       </c>
       <c r="S31" t="n">
-        <v>104.612003946884</v>
+        <v>104.6120039468842</v>
       </c>
       <c r="T31" t="n">
-        <v>126.9474849281197</v>
+        <v>126.9474849281194</v>
       </c>
       <c r="U31" t="n">
         <v>181.4002035101508</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.1077837458342</v>
+        <v>284.1077837458341</v>
       </c>
       <c r="C32" t="n">
-        <v>272.119100703516</v>
+        <v>272.1191007035159</v>
       </c>
       <c r="D32" t="n">
-        <v>263.100404748044</v>
+        <v>263.1004047480438</v>
       </c>
       <c r="E32" t="n">
-        <v>284.8425423179495</v>
+        <v>284.8425423179494</v>
       </c>
       <c r="F32" t="n">
-        <v>304.0143584059267</v>
+        <v>304.0143584059266</v>
       </c>
       <c r="G32" t="n">
-        <v>305.4288752009248</v>
+        <v>305.4288752009247</v>
       </c>
       <c r="H32" t="n">
         <v>218.1850815539553</v>
       </c>
       <c r="I32" t="n">
-        <v>45.09455455007092</v>
+        <v>45.09455455007085</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.54032449244907</v>
+        <v>67.540324492449</v>
       </c>
       <c r="T32" t="n">
         <v>113.8492034784314</v>
@@ -3086,13 +3086,13 @@
         <v>146.2996624579472</v>
       </c>
       <c r="V32" t="n">
-        <v>227.6141609860134</v>
+        <v>227.6141609860133</v>
       </c>
       <c r="W32" t="n">
-        <v>252.9142604639703</v>
+        <v>252.9142604639702</v>
       </c>
       <c r="X32" t="n">
-        <v>272.2145186967169</v>
+        <v>272.2145186967168</v>
       </c>
       <c r="Y32" t="n">
         <v>283.6111164929156</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S33" t="n">
         <v>146.1160054094308</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.7244946205313</v>
+        <v>75.72449462053123</v>
       </c>
       <c r="C34" t="n">
-        <v>61.92448946593179</v>
+        <v>61.92448946593171</v>
       </c>
       <c r="D34" t="n">
-        <v>45.54585386351017</v>
+        <v>45.5458538635101</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49360371928962</v>
+        <v>44.49360371928955</v>
       </c>
       <c r="F34" t="n">
-        <v>44.96052804747593</v>
+        <v>44.96052804747586</v>
       </c>
       <c r="G34" t="n">
-        <v>61.00253688292069</v>
+        <v>61.00253688292062</v>
       </c>
       <c r="H34" t="n">
-        <v>49.7147382059396</v>
+        <v>49.71473820593953</v>
       </c>
       <c r="I34" t="n">
-        <v>29.76795380754934</v>
+        <v>29.76795380754927</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.56847992497365</v>
+        <v>31.56847992497357</v>
       </c>
       <c r="S34" t="n">
-        <v>101.5221247817429</v>
+        <v>101.5221247817428</v>
       </c>
       <c r="T34" t="n">
-        <v>123.8576057629783</v>
+        <v>123.8576057629782</v>
       </c>
       <c r="U34" t="n">
-        <v>178.3103243450099</v>
+        <v>178.3103243450098</v>
       </c>
       <c r="V34" t="n">
-        <v>152.1326310201569</v>
+        <v>152.1326310201568</v>
       </c>
       <c r="W34" t="n">
-        <v>177.2995170907702</v>
+        <v>177.2995170907701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.9446190865733</v>
+        <v>122.9446190865732</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.819486842641</v>
+        <v>113.8194868426409</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>235.8572252488616</v>
+        <v>235.8572252488617</v>
       </c>
       <c r="C35" t="n">
-        <v>223.8685422065433</v>
+        <v>223.8685422065434</v>
       </c>
       <c r="D35" t="n">
-        <v>214.8498462510713</v>
+        <v>214.8498462510714</v>
       </c>
       <c r="E35" t="n">
-        <v>236.5919838209768</v>
+        <v>236.5919838209769</v>
       </c>
       <c r="F35" t="n">
-        <v>255.763799908954</v>
+        <v>255.7637999089541</v>
       </c>
       <c r="G35" t="n">
-        <v>257.1783167039521</v>
+        <v>257.1783167039522</v>
       </c>
       <c r="H35" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.28976599547644</v>
+        <v>19.28976599547653</v>
       </c>
       <c r="T35" t="n">
-        <v>65.59864498145882</v>
+        <v>65.5986449814589</v>
       </c>
       <c r="U35" t="n">
-        <v>98.04910396097461</v>
+        <v>98.04910396097469</v>
       </c>
       <c r="V35" t="n">
-        <v>179.3636024890407</v>
+        <v>179.3636024890408</v>
       </c>
       <c r="W35" t="n">
-        <v>204.6637019669976</v>
+        <v>204.6637019669977</v>
       </c>
       <c r="X35" t="n">
-        <v>223.9639601997442</v>
+        <v>223.9639601997443</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.360557995943</v>
+        <v>235.3605579959431</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S36" t="n">
         <v>146.1160054094308</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.47393612355867</v>
+        <v>27.47393612355876</v>
       </c>
       <c r="C37" t="n">
-        <v>13.67393096895916</v>
+        <v>13.67393096895924</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.75197838594807</v>
+        <v>12.75197838594815</v>
       </c>
       <c r="H37" t="n">
-        <v>1.464179708966975</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.27156628477025</v>
+        <v>83.38617134866203</v>
       </c>
       <c r="T37" t="n">
-        <v>75.60704726600565</v>
+        <v>75.60704726600574</v>
       </c>
       <c r="U37" t="n">
-        <v>130.0597658480372</v>
+        <v>130.0597658480373</v>
       </c>
       <c r="V37" t="n">
         <v>103.8820725231843</v>
       </c>
       <c r="W37" t="n">
-        <v>129.0489585937975</v>
+        <v>129.0489585937976</v>
       </c>
       <c r="X37" t="n">
-        <v>74.69406058960064</v>
+        <v>74.69406058960072</v>
       </c>
       <c r="Y37" t="n">
-        <v>95.68353340956091</v>
+        <v>65.56892834566841</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.8572252488616</v>
+        <v>235.8572252488617</v>
       </c>
       <c r="C38" t="n">
-        <v>223.8685422065433</v>
+        <v>223.8685422065434</v>
       </c>
       <c r="D38" t="n">
-        <v>214.8498462510713</v>
+        <v>214.8498462510714</v>
       </c>
       <c r="E38" t="n">
-        <v>236.5919838209768</v>
+        <v>236.5919838209769</v>
       </c>
       <c r="F38" t="n">
-        <v>255.763799908954</v>
+        <v>255.7637999089541</v>
       </c>
       <c r="G38" t="n">
-        <v>257.1783167039521</v>
+        <v>257.1783167039522</v>
       </c>
       <c r="H38" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.28976599547644</v>
+        <v>19.28976599547653</v>
       </c>
       <c r="T38" t="n">
-        <v>65.59864498145882</v>
+        <v>65.5986449814589</v>
       </c>
       <c r="U38" t="n">
-        <v>98.04910396097461</v>
+        <v>98.04910396097469</v>
       </c>
       <c r="V38" t="n">
-        <v>179.3636024890407</v>
+        <v>179.3636024890408</v>
       </c>
       <c r="W38" t="n">
-        <v>204.6637019669976</v>
+        <v>204.6637019669977</v>
       </c>
       <c r="X38" t="n">
-        <v>223.9639601997442</v>
+        <v>223.9639601997443</v>
       </c>
       <c r="Y38" t="n">
-        <v>235.360557995943</v>
+        <v>235.3605579959431</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S39" t="n">
         <v>146.1160054094308</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.58854118745129</v>
+        <v>27.47393612355876</v>
       </c>
       <c r="C40" t="n">
-        <v>13.67393096895916</v>
+        <v>13.67393096895924</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>12.75197838594807</v>
+        <v>12.75197838594815</v>
       </c>
       <c r="H40" t="n">
-        <v>1.464179708966975</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>53.27156628477025</v>
+        <v>83.38617134866226</v>
       </c>
       <c r="T40" t="n">
-        <v>75.60704726600565</v>
+        <v>75.60704726600574</v>
       </c>
       <c r="U40" t="n">
-        <v>130.0597658480372</v>
+        <v>130.0597658480373</v>
       </c>
       <c r="V40" t="n">
         <v>103.8820725231843</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0489585937975</v>
+        <v>129.0489585937976</v>
       </c>
       <c r="X40" t="n">
-        <v>74.69406058960064</v>
+        <v>74.69406058960072</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.56892834566833</v>
+        <v>65.56892834566841</v>
       </c>
     </row>
     <row r="41">
@@ -3740,13 +3740,13 @@
         <v>235.8572252488617</v>
       </c>
       <c r="C41" t="n">
-        <v>223.8685422065434</v>
+        <v>223.8685422065435</v>
       </c>
       <c r="D41" t="n">
         <v>214.8498462510714</v>
       </c>
       <c r="E41" t="n">
-        <v>236.5919838209769</v>
+        <v>236.591983820977</v>
       </c>
       <c r="F41" t="n">
         <v>255.7637999089541</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.28976599547653</v>
+        <v>19.28976599547656</v>
       </c>
       <c r="T41" t="n">
-        <v>65.5986449814589</v>
+        <v>65.59864498145893</v>
       </c>
       <c r="U41" t="n">
-        <v>98.04910396097469</v>
+        <v>98.04910396097472</v>
       </c>
       <c r="V41" t="n">
         <v>179.3636024890408</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S42" t="n">
         <v>146.1160054094308</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.47393612355876</v>
+        <v>27.47393612355879</v>
       </c>
       <c r="C43" t="n">
-        <v>13.67393096895924</v>
+        <v>13.67393096895927</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.75197838594815</v>
+        <v>12.75197838594818</v>
       </c>
       <c r="H43" t="n">
-        <v>1.464179708967061</v>
+        <v>31.57878477285864</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>53.27156628477034</v>
+        <v>53.27156628477037</v>
       </c>
       <c r="T43" t="n">
-        <v>75.60704726600574</v>
+        <v>75.60704726600576</v>
       </c>
       <c r="U43" t="n">
-        <v>130.0597658480373</v>
+        <v>130.0597658480374</v>
       </c>
       <c r="V43" t="n">
-        <v>103.8820725231843</v>
+        <v>103.8820725231844</v>
       </c>
       <c r="W43" t="n">
-        <v>159.1635636576894</v>
+        <v>129.0489585937976</v>
       </c>
       <c r="X43" t="n">
-        <v>74.69406058960072</v>
+        <v>74.69406058960075</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.56892834566841</v>
+        <v>65.56892834566844</v>
       </c>
     </row>
     <row r="44">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S45" t="n">
         <v>146.1160054094308</v>
@@ -4135,7 +4135,7 @@
         <v>27.47393612355876</v>
       </c>
       <c r="C46" t="n">
-        <v>13.67393096895924</v>
+        <v>43.78853603285104</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>12.75197838594815</v>
       </c>
       <c r="H46" t="n">
-        <v>1.464179708967061</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>30.11460506389174</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>53.27156628477034</v>
@@ -4808,10 +4808,10 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="N8" t="n">
         <v>12.3012350807645</v>
@@ -4826,22 +4826,22 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T8" t="n">
-        <v>23.64462171059961</v>
+        <v>47.25696990007782</v>
       </c>
       <c r="U8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="V8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="W8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="X8" t="n">
         <v>23.12980488926189</v>
@@ -4881,22 +4881,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K9" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L9" t="n">
-        <v>24.60247016152901</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="M9" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="N9" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O9" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P9" t="n">
         <v>47.77178672141554</v>
@@ -4905,22 +4905,22 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S9" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T9" t="n">
-        <v>23.64462171059961</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="U9" t="n">
-        <v>11.58103920519164</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="V9" t="n">
-        <v>11.58103920519164</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="W9" t="n">
-        <v>11.58103920519164</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="X9" t="n">
         <v>0.9554357344283108</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D10" t="n">
         <v>0.9554357344283108</v>
@@ -4963,49 +4963,49 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
-        <v>12.3012350807645</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L10" t="n">
-        <v>24.12475229431485</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M10" t="n">
         <v>24.12475229431485</v>
       </c>
       <c r="N10" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O10" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P10" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="R10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="S10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="T10" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="U10" t="n">
-        <v>23.64462171059961</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="V10" t="n">
-        <v>11.58103920519164</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1600.250011122753</v>
+        <v>1226.055134249932</v>
       </c>
       <c r="C11" t="n">
-        <v>1304.144233029868</v>
+        <v>1084.479017279878</v>
       </c>
       <c r="D11" t="n">
-        <v>1017.148248831399</v>
+        <v>1084.479017279878</v>
       </c>
       <c r="E11" t="n">
-        <v>1017.148248831399</v>
+        <v>775.521277960293</v>
       </c>
       <c r="F11" t="n">
-        <v>688.8250387158774</v>
+        <v>447.198067844771</v>
       </c>
       <c r="G11" t="n">
-        <v>359.0730237569231</v>
+        <v>117.4460528858166</v>
       </c>
       <c r="H11" t="n">
         <v>117.4460528858166</v>
@@ -5039,25 +5039,25 @@
         <v>50.65799818024986</v>
       </c>
       <c r="J11" t="n">
-        <v>166.2446103186537</v>
+        <v>50.65799818024986</v>
       </c>
       <c r="K11" t="n">
-        <v>471.7121970530027</v>
+        <v>356.125584914599</v>
       </c>
       <c r="L11" t="n">
-        <v>900.6417565878276</v>
+        <v>785.0551444494238</v>
       </c>
       <c r="M11" t="n">
-        <v>1219.498515947682</v>
+        <v>1268.471583670953</v>
       </c>
       <c r="N11" t="n">
-        <v>1689.466310157905</v>
+        <v>1738.439377881175</v>
       </c>
       <c r="O11" t="n">
-        <v>2081.00058219126</v>
+        <v>2129.97364991453</v>
       </c>
       <c r="P11" t="n">
-        <v>2383.008565045143</v>
+        <v>2431.981632768414</v>
       </c>
       <c r="Q11" t="n">
         <v>2532.899909012493</v>
@@ -5066,25 +5066,25 @@
         <v>2532.899909012493</v>
       </c>
       <c r="S11" t="n">
-        <v>2521.432076384257</v>
+        <v>2443.439359415635</v>
       </c>
       <c r="T11" t="n">
-        <v>2385.194881347013</v>
+        <v>2307.202164378391</v>
       </c>
       <c r="U11" t="n">
-        <v>2216.179444916319</v>
+        <v>2138.186727947697</v>
       </c>
       <c r="V11" t="n">
-        <v>2216.179444916319</v>
+        <v>2138.186727947697</v>
       </c>
       <c r="W11" t="n">
-        <v>2216.179444916319</v>
+        <v>2138.186727947697</v>
       </c>
       <c r="X11" t="n">
-        <v>2216.179444916319</v>
+        <v>1841.984568043498</v>
       </c>
       <c r="Y11" t="n">
-        <v>1908.465570066465</v>
+        <v>1534.270693193644</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.3299698356717</v>
+        <v>917.3299698356712</v>
       </c>
       <c r="C12" t="n">
-        <v>755.6262970766265</v>
+        <v>755.6262970766261</v>
       </c>
       <c r="D12" t="n">
-        <v>616.7876600668385</v>
+        <v>616.787660066838</v>
       </c>
       <c r="E12" t="n">
-        <v>469.7596501237097</v>
+        <v>469.7596501237092</v>
       </c>
       <c r="F12" t="n">
-        <v>335.0658520735841</v>
+        <v>335.0658520735836</v>
       </c>
       <c r="G12" t="n">
         <v>206.6177120051398</v>
       </c>
       <c r="H12" t="n">
-        <v>109.3875410343539</v>
+        <v>109.3875410343538</v>
       </c>
       <c r="I12" t="n">
         <v>50.65799818024986</v>
       </c>
       <c r="J12" t="n">
-        <v>136.8728993259475</v>
+        <v>50.65799818024986</v>
       </c>
       <c r="K12" t="n">
-        <v>410.7345164872123</v>
+        <v>157.8833553009338</v>
       </c>
       <c r="L12" t="n">
-        <v>836.2187337429481</v>
+        <v>583.3675725566695</v>
       </c>
       <c r="M12" t="n">
-        <v>1390.875261384803</v>
+        <v>1138.024100198525</v>
       </c>
       <c r="N12" t="n">
-        <v>1527.908487713213</v>
+        <v>1720.755638702319</v>
       </c>
       <c r="O12" t="n">
-        <v>1985.485768030312</v>
+        <v>2178.332919019419</v>
       </c>
       <c r="P12" t="n">
-        <v>2340.052758023386</v>
+        <v>2532.899909012493</v>
       </c>
       <c r="Q12" t="n">
         <v>2532.899909012493</v>
@@ -5148,7 +5148,7 @@
         <v>2342.930622738684</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.375566078798</v>
+        <v>2155.375566078797</v>
       </c>
       <c r="U12" t="n">
         <v>1936.899218407915</v>
@@ -5160,10 +5160,10 @@
         <v>1467.187727089559</v>
       </c>
       <c r="X12" t="n">
-        <v>1269.270738967354</v>
+        <v>1269.270738967353</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.749412616933</v>
+        <v>1076.749412616932</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.1418782324702</v>
+        <v>488.8352384183394</v>
       </c>
       <c r="C13" t="n">
-        <v>456.3538892684581</v>
+        <v>405.0472494543274</v>
       </c>
       <c r="D13" t="n">
-        <v>389.1099766705286</v>
+        <v>337.8033368563978</v>
       </c>
       <c r="E13" t="n">
-        <v>322.9289430061551</v>
+        <v>271.6223031920243</v>
       </c>
       <c r="F13" t="n">
-        <v>256.2762686062399</v>
+        <v>204.9696287921091</v>
       </c>
       <c r="G13" t="n">
-        <v>173.4195448775926</v>
+        <v>122.1129050634617</v>
       </c>
       <c r="H13" t="n">
-        <v>101.9646379943807</v>
+        <v>50.65799818024986</v>
       </c>
       <c r="I13" t="n">
         <v>50.65799818024986</v>
@@ -5206,43 +5206,43 @@
         <v>455.6678532729348</v>
       </c>
       <c r="M13" t="n">
-        <v>693.8924292330553</v>
+        <v>693.8924292330555</v>
       </c>
       <c r="N13" t="n">
-        <v>931.6872003761923</v>
+        <v>931.6872003761924</v>
       </c>
       <c r="O13" t="n">
         <v>1146.83217147495</v>
       </c>
       <c r="P13" t="n">
-        <v>1321.782494086456</v>
+        <v>1321.782494086457</v>
       </c>
       <c r="Q13" t="n">
         <v>1387.422140041295</v>
       </c>
       <c r="R13" t="n">
-        <v>1334.29678697724</v>
+        <v>1387.422140041295</v>
       </c>
       <c r="S13" t="n">
-        <v>1210.511186583116</v>
+        <v>1299.354987874208</v>
       </c>
       <c r="T13" t="n">
-        <v>1064.164494288754</v>
+        <v>1299.354987874208</v>
       </c>
       <c r="U13" t="n">
-        <v>862.8150559519358</v>
+        <v>1098.00554953739</v>
       </c>
       <c r="V13" t="n">
-        <v>774.0764445759576</v>
+        <v>923.09822567012</v>
       </c>
       <c r="W13" t="n">
-        <v>774.0764445759576</v>
+        <v>722.7698047618268</v>
       </c>
       <c r="X13" t="n">
-        <v>774.0764445759576</v>
+        <v>722.7698047618268</v>
       </c>
       <c r="Y13" t="n">
-        <v>637.8692663425423</v>
+        <v>586.5626265284116</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1091.812676461369</v>
+        <v>1470.030966581321</v>
       </c>
       <c r="C14" t="n">
-        <v>795.7068983684837</v>
+        <v>1470.030966581321</v>
       </c>
       <c r="D14" t="n">
-        <v>795.7068983684837</v>
+        <v>1329.464348964489</v>
       </c>
       <c r="E14" t="n">
-        <v>778.8796387737965</v>
+        <v>1020.506609644903</v>
       </c>
       <c r="F14" t="n">
-        <v>450.5564286582745</v>
+        <v>692.1833995293811</v>
       </c>
       <c r="G14" t="n">
-        <v>120.8044136993201</v>
+        <v>362.4313845704266</v>
       </c>
       <c r="H14" t="n">
         <v>120.8044136993201</v>
       </c>
       <c r="I14" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J14" t="n">
-        <v>169.6029711321571</v>
+        <v>169.602971132157</v>
       </c>
       <c r="K14" t="n">
         <v>475.0705578665061</v>
       </c>
       <c r="L14" t="n">
-        <v>904.0001174013307</v>
+        <v>904.000117401331</v>
       </c>
       <c r="M14" t="n">
-        <v>1387.416556622859</v>
+        <v>1387.41655662286</v>
       </c>
       <c r="N14" t="n">
         <v>1857.384350833082</v>
       </c>
       <c r="O14" t="n">
-        <v>2248.918622866437</v>
+        <v>2248.918622866438</v>
       </c>
       <c r="P14" t="n">
-        <v>2550.92660572032</v>
+        <v>2550.926605720321</v>
       </c>
       <c r="Q14" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="R14" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="S14" t="n">
-        <v>2700.81794968767</v>
+        <v>2611.357400090813</v>
       </c>
       <c r="T14" t="n">
-        <v>2700.81794968767</v>
+        <v>2475.120205053569</v>
       </c>
       <c r="U14" t="n">
-        <v>2531.802513256976</v>
+        <v>2306.104768622874</v>
       </c>
       <c r="V14" t="n">
-        <v>2280.651219727225</v>
+        <v>2054.953475093123</v>
       </c>
       <c r="W14" t="n">
-        <v>2003.944270159133</v>
+        <v>1778.246525525032</v>
       </c>
       <c r="X14" t="n">
-        <v>1707.742110254934</v>
+        <v>1778.246525525032</v>
       </c>
       <c r="Y14" t="n">
-        <v>1400.02823540508</v>
+        <v>1778.246525525032</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I15" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J15" t="n">
         <v>140.2312601394511</v>
       </c>
       <c r="K15" t="n">
-        <v>414.0928773007158</v>
+        <v>414.0928773007159</v>
       </c>
       <c r="L15" t="n">
-        <v>839.5770945564516</v>
+        <v>839.5770945564517</v>
       </c>
       <c r="M15" t="n">
         <v>1394.233622198307</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>343.4226183837555</v>
+        <v>205.0482605556951</v>
       </c>
       <c r="C16" t="n">
-        <v>259.6346294197434</v>
+        <v>121.260271591683</v>
       </c>
       <c r="D16" t="n">
-        <v>259.6346294197434</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="E16" t="n">
-        <v>259.6346294197434</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="F16" t="n">
-        <v>259.6346294197434</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="G16" t="n">
-        <v>176.7779056910961</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="H16" t="n">
-        <v>105.3229988078842</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I16" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J16" t="n">
-        <v>95.56120637267668</v>
+        <v>95.56120637267674</v>
       </c>
       <c r="K16" t="n">
-        <v>240.0498486347703</v>
+        <v>240.0498486347704</v>
       </c>
       <c r="L16" t="n">
-        <v>459.0262140864382</v>
+        <v>459.0262140864384</v>
       </c>
       <c r="M16" t="n">
-        <v>697.2507900465589</v>
+        <v>697.2507900465591</v>
       </c>
       <c r="N16" t="n">
-        <v>935.0455611896958</v>
+        <v>935.0455611896961</v>
       </c>
       <c r="O16" t="n">
         <v>1150.190532288453</v>
@@ -5455,31 +5455,31 @@
         <v>1325.14085489996</v>
       </c>
       <c r="Q16" t="n">
-        <v>1390.780500854798</v>
+        <v>1390.780500854799</v>
       </c>
       <c r="R16" t="n">
-        <v>1368.149705721609</v>
+        <v>1390.780500854799</v>
       </c>
       <c r="S16" t="n">
-        <v>1244.364105327485</v>
+        <v>1266.994900460674</v>
       </c>
       <c r="T16" t="n">
-        <v>1098.017413033123</v>
+        <v>1120.648208166312</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.017413033123</v>
+        <v>959.643055205062</v>
       </c>
       <c r="V16" t="n">
-        <v>923.110089165853</v>
+        <v>784.7357313377922</v>
       </c>
       <c r="W16" t="n">
-        <v>722.7816682575597</v>
+        <v>584.407310429499</v>
       </c>
       <c r="X16" t="n">
-        <v>577.3571847272431</v>
+        <v>438.9828268991824</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.1500064938277</v>
+        <v>302.7756486657672</v>
       </c>
     </row>
     <row r="17">
@@ -5495,52 +5495,52 @@
         <v>1199.792591056316</v>
       </c>
       <c r="D17" t="n">
-        <v>982.7725443380617</v>
+        <v>982.7725443380639</v>
       </c>
       <c r="E17" t="n">
-        <v>743.7907424986911</v>
+        <v>743.7907424986932</v>
       </c>
       <c r="F17" t="n">
-        <v>485.4434698633839</v>
+        <v>485.4434698633861</v>
       </c>
       <c r="G17" t="n">
-        <v>225.667392384645</v>
+        <v>225.6673923846451</v>
       </c>
       <c r="H17" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I17" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J17" t="n">
         <v>169.6029711321572</v>
       </c>
       <c r="K17" t="n">
-        <v>475.0705578665057</v>
+        <v>475.0705578665064</v>
       </c>
       <c r="L17" t="n">
-        <v>904.0001174013305</v>
+        <v>904.0001174013312</v>
       </c>
       <c r="M17" t="n">
-        <v>1387.416556622859</v>
+        <v>1387.41655662286</v>
       </c>
       <c r="N17" t="n">
         <v>1857.384350833082</v>
       </c>
       <c r="O17" t="n">
-        <v>2248.918622866437</v>
+        <v>2248.918622866438</v>
       </c>
       <c r="P17" t="n">
-        <v>2550.92660572032</v>
+        <v>2550.926605720321</v>
       </c>
       <c r="Q17" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="R17" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="S17" t="n">
-        <v>2681.333337571027</v>
+        <v>2681.333337571028</v>
       </c>
       <c r="T17" t="n">
         <v>2615.072080013998</v>
@@ -5549,7 +5549,7 @@
         <v>2516.032581063519</v>
       </c>
       <c r="V17" t="n">
-        <v>2334.857225013982</v>
+        <v>2334.857225013983</v>
       </c>
       <c r="W17" t="n">
         <v>2128.126212926106</v>
@@ -5589,16 +5589,16 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I18" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J18" t="n">
         <v>140.2312601394511</v>
       </c>
       <c r="K18" t="n">
-        <v>414.0928773007158</v>
+        <v>414.0928773007159</v>
       </c>
       <c r="L18" t="n">
-        <v>839.5770945564516</v>
+        <v>839.5770945564517</v>
       </c>
       <c r="M18" t="n">
         <v>1394.233622198307</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.18816612897996</v>
+        <v>112.6069591228102</v>
       </c>
       <c r="C19" t="n">
-        <v>68.3761146451828</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="D19" t="n">
-        <v>68.3761146451828</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="E19" t="n">
-        <v>68.3761146451828</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="F19" t="n">
-        <v>68.3761146451828</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="G19" t="n">
-        <v>55.49532839675037</v>
+        <v>55.49532839675044</v>
       </c>
       <c r="H19" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I19" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J19" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K19" t="n">
         <v>114.3849974949681</v>
@@ -5698,25 +5698,25 @@
         <v>778.875984955763</v>
       </c>
       <c r="S19" t="n">
-        <v>694.647529048023</v>
+        <v>725.0663220418536</v>
       </c>
       <c r="T19" t="n">
-        <v>618.2767742338758</v>
+        <v>648.6955672277064</v>
       </c>
       <c r="U19" t="n">
-        <v>486.9032733772725</v>
+        <v>517.322066371103</v>
       </c>
       <c r="V19" t="n">
-        <v>381.9718869902176</v>
+        <v>412.3906799840481</v>
       </c>
       <c r="W19" t="n">
-        <v>251.6194035621393</v>
+        <v>282.0381965559698</v>
       </c>
       <c r="X19" t="n">
-        <v>176.1708575120376</v>
+        <v>206.589650505868</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.9396167588372</v>
+        <v>140.3584097526676</v>
       </c>
     </row>
     <row r="20">
@@ -5729,55 +5729,55 @@
         <v>1425.922431668986</v>
       </c>
       <c r="C20" t="n">
-        <v>1199.792591056315</v>
+        <v>1199.792591056316</v>
       </c>
       <c r="D20" t="n">
-        <v>982.7725443380615</v>
+        <v>982.7725443380621</v>
       </c>
       <c r="E20" t="n">
-        <v>743.7907424986909</v>
+        <v>743.7907424986914</v>
       </c>
       <c r="F20" t="n">
-        <v>485.4434698633837</v>
+        <v>485.4434698633843</v>
       </c>
       <c r="G20" t="n">
-        <v>225.667392384645</v>
+        <v>225.6673923846451</v>
       </c>
       <c r="H20" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I20" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J20" t="n">
-        <v>169.6029711321566</v>
+        <v>169.6029711321571</v>
       </c>
       <c r="K20" t="n">
-        <v>475.0705578665057</v>
+        <v>475.0705578665062</v>
       </c>
       <c r="L20" t="n">
-        <v>904.0001174013305</v>
+        <v>904.0001174013311</v>
       </c>
       <c r="M20" t="n">
-        <v>1387.416556622859</v>
+        <v>1387.41655662286</v>
       </c>
       <c r="N20" t="n">
         <v>1857.384350833082</v>
       </c>
       <c r="O20" t="n">
-        <v>2248.918622866437</v>
+        <v>2248.918622866438</v>
       </c>
       <c r="P20" t="n">
-        <v>2550.92660572032</v>
+        <v>2550.926605720321</v>
       </c>
       <c r="Q20" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="R20" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="S20" t="n">
-        <v>2681.333337571027</v>
+        <v>2681.333337571028</v>
       </c>
       <c r="T20" t="n">
         <v>2615.072080013998</v>
@@ -5792,7 +5792,7 @@
         <v>2128.126212926106</v>
       </c>
       <c r="X20" t="n">
-        <v>1901.899990502122</v>
+        <v>1901.899990502121</v>
       </c>
       <c r="Y20" t="n">
         <v>1664.162053132482</v>
@@ -5826,22 +5826,22 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I21" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J21" t="n">
-        <v>140.2312601394511</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K21" t="n">
-        <v>161.2417161144374</v>
+        <v>161.2417161144369</v>
       </c>
       <c r="L21" t="n">
-        <v>586.7259333701732</v>
+        <v>586.7259333701727</v>
       </c>
       <c r="M21" t="n">
         <v>1141.382461012028</v>
       </c>
       <c r="N21" t="n">
-        <v>1724.113999515823</v>
+        <v>1724.113999515822</v>
       </c>
       <c r="O21" t="n">
         <v>2181.691279832922</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.18816612897996</v>
+        <v>82.18816612898014</v>
       </c>
       <c r="C22" t="n">
-        <v>68.3761146451828</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="D22" t="n">
-        <v>68.3761146451828</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="E22" t="n">
-        <v>68.3761146451828</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="F22" t="n">
-        <v>68.3761146451828</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="G22" t="n">
-        <v>55.49532839675037</v>
+        <v>55.49532839675044</v>
       </c>
       <c r="H22" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I22" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J22" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K22" t="n">
         <v>114.3849974949681</v>
@@ -5929,31 +5929,31 @@
         <v>778.875984955763</v>
       </c>
       <c r="Q22" t="n">
-        <v>778.875984955763</v>
+        <v>760.0204010295915</v>
       </c>
       <c r="R22" t="n">
-        <v>778.875984955763</v>
+        <v>760.0204010295915</v>
       </c>
       <c r="S22" t="n">
-        <v>725.0663220418536</v>
+        <v>706.2107381156821</v>
       </c>
       <c r="T22" t="n">
-        <v>648.6955672277064</v>
+        <v>618.2767742338764</v>
       </c>
       <c r="U22" t="n">
-        <v>517.3220663711031</v>
+        <v>486.903273377273</v>
       </c>
       <c r="V22" t="n">
-        <v>381.9718869902176</v>
+        <v>381.9718869902181</v>
       </c>
       <c r="W22" t="n">
-        <v>251.6194035621393</v>
+        <v>251.6194035621397</v>
       </c>
       <c r="X22" t="n">
-        <v>176.1708575120376</v>
+        <v>176.1708575120379</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.9396167588372</v>
+        <v>109.9396167588375</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1425.922431668986</v>
+        <v>1425.922431668987</v>
       </c>
       <c r="C23" t="n">
-        <v>1199.792591056316</v>
+        <v>1199.792591056317</v>
       </c>
       <c r="D23" t="n">
-        <v>982.7725443380624</v>
+        <v>982.7725443380627</v>
       </c>
       <c r="E23" t="n">
-        <v>743.7907424986918</v>
+        <v>743.7907424986921</v>
       </c>
       <c r="F23" t="n">
-        <v>485.4434698633846</v>
+        <v>485.443469863385</v>
       </c>
       <c r="G23" t="n">
-        <v>225.667392384645</v>
+        <v>225.6673923846451</v>
       </c>
       <c r="H23" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I23" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J23" t="n">
-        <v>169.6029711321566</v>
+        <v>169.6029711321572</v>
       </c>
       <c r="K23" t="n">
-        <v>475.0705578665057</v>
+        <v>475.0705578665064</v>
       </c>
       <c r="L23" t="n">
-        <v>904.0001174013305</v>
+        <v>904.0001174013312</v>
       </c>
       <c r="M23" t="n">
-        <v>1387.416556622859</v>
+        <v>1387.41655662286</v>
       </c>
       <c r="N23" t="n">
         <v>1857.384350833082</v>
       </c>
       <c r="O23" t="n">
-        <v>2248.918622866437</v>
+        <v>2248.918622866438</v>
       </c>
       <c r="P23" t="n">
-        <v>2550.92660572032</v>
+        <v>2550.926605720321</v>
       </c>
       <c r="Q23" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="R23" t="n">
         <v>2700.817949687671</v>
       </c>
       <c r="S23" t="n">
-        <v>2681.333337571028</v>
+        <v>2681.333337571029</v>
       </c>
       <c r="T23" t="n">
-        <v>2615.072080013998</v>
+        <v>2615.072080013999</v>
       </c>
       <c r="U23" t="n">
-        <v>2516.032581063519</v>
+        <v>2516.03258106352</v>
       </c>
       <c r="V23" t="n">
-        <v>2334.857225013983</v>
+        <v>2334.857225013984</v>
       </c>
       <c r="W23" t="n">
-        <v>2128.126212926106</v>
+        <v>2128.126212926108</v>
       </c>
       <c r="X23" t="n">
-        <v>1901.899990502122</v>
+        <v>1901.899990502123</v>
       </c>
       <c r="Y23" t="n">
-        <v>1664.162053132483</v>
+        <v>1664.162053132484</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6063,16 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I24" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J24" t="n">
         <v>140.2312601394511</v>
       </c>
       <c r="K24" t="n">
-        <v>414.0928773007158</v>
+        <v>414.0928773007159</v>
       </c>
       <c r="L24" t="n">
-        <v>839.5770945564516</v>
+        <v>839.5770945564517</v>
       </c>
       <c r="M24" t="n">
         <v>1394.233622198307</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.7513751966392</v>
+        <v>82.18816612898014</v>
       </c>
       <c r="C25" t="n">
-        <v>79.93932371284205</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="D25" t="n">
-        <v>79.93932371284205</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="E25" t="n">
-        <v>79.93932371284205</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="F25" t="n">
-        <v>79.93932371284205</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="G25" t="n">
-        <v>67.05853746440962</v>
+        <v>55.49532839675044</v>
       </c>
       <c r="H25" t="n">
-        <v>65.57956806141266</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I25" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J25" t="n">
-        <v>54.0163589937534</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K25" t="n">
         <v>114.3849974949681</v>
@@ -6166,31 +6166,31 @@
         <v>778.875984955763</v>
       </c>
       <c r="Q25" t="n">
-        <v>760.0204010295915</v>
+        <v>778.875984955763</v>
       </c>
       <c r="R25" t="n">
-        <v>760.0204010295915</v>
+        <v>778.875984955763</v>
       </c>
       <c r="S25" t="n">
-        <v>706.2107381156821</v>
+        <v>725.0663220418536</v>
       </c>
       <c r="T25" t="n">
-        <v>629.839983301535</v>
+        <v>648.6955672277064</v>
       </c>
       <c r="U25" t="n">
-        <v>498.4664824449317</v>
+        <v>486.903273377273</v>
       </c>
       <c r="V25" t="n">
-        <v>393.5350960578768</v>
+        <v>381.9718869902181</v>
       </c>
       <c r="W25" t="n">
-        <v>263.1826126297985</v>
+        <v>251.6194035621397</v>
       </c>
       <c r="X25" t="n">
-        <v>187.7340665796968</v>
+        <v>176.1708575120379</v>
       </c>
       <c r="Y25" t="n">
-        <v>121.5028258264965</v>
+        <v>109.9396167588375</v>
       </c>
     </row>
     <row r="26">
@@ -6209,7 +6209,7 @@
         <v>1254.689955074086</v>
       </c>
       <c r="E26" t="n">
-        <v>963.8491252931865</v>
+        <v>963.8491252931863</v>
       </c>
       <c r="F26" t="n">
         <v>653.6428247163503</v>
@@ -6233,16 +6233,16 @@
         <v>1225.439431603592</v>
       </c>
       <c r="M26" t="n">
-        <v>1725.116758429875</v>
+        <v>1810.732257624866</v>
       </c>
       <c r="N26" t="n">
-        <v>2296.960939439842</v>
+        <v>2382.576438634834</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.371598272942</v>
+        <v>2875.987097467934</v>
       </c>
       <c r="P26" t="n">
-        <v>3194.255967926571</v>
+        <v>3279.871467121562</v>
       </c>
       <c r="Q26" t="n">
         <v>3446.023698693665</v>
@@ -6251,7 +6251,7 @@
         <v>3491.325639838985</v>
       </c>
       <c r="S26" t="n">
-        <v>3419.981999780813</v>
+        <v>3419.981999780814</v>
       </c>
       <c r="T26" t="n">
         <v>3301.861714282255</v>
@@ -6263,7 +6263,7 @@
         <v>2917.928803399181</v>
       </c>
       <c r="W26" t="n">
-        <v>2659.338763369776</v>
+        <v>2659.338763369775</v>
       </c>
       <c r="X26" t="n">
         <v>2381.253513004262</v>
@@ -6303,16 +6303,16 @@
         <v>69.8265127967797</v>
       </c>
       <c r="J27" t="n">
-        <v>156.0414139424773</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="K27" t="n">
-        <v>429.9030311037421</v>
+        <v>343.6881299580446</v>
       </c>
       <c r="L27" t="n">
-        <v>855.3872483594779</v>
+        <v>769.1723472137803</v>
       </c>
       <c r="M27" t="n">
-        <v>1410.043776001333</v>
+        <v>1323.828874855635</v>
       </c>
       <c r="N27" t="n">
         <v>1547.077002329742</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.4920260781993</v>
+        <v>432.4920260781992</v>
       </c>
       <c r="C28" t="n">
-        <v>366.820946652873</v>
+        <v>366.8209466528729</v>
       </c>
       <c r="D28" t="n">
         <v>317.6939435936292</v>
       </c>
       <c r="E28" t="n">
-        <v>269.6298194679416</v>
+        <v>269.6298194679415</v>
       </c>
       <c r="F28" t="n">
-        <v>221.0940546067122</v>
+        <v>221.0940546067121</v>
       </c>
       <c r="G28" t="n">
         <v>156.3542404167507</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0162430722247</v>
+        <v>103.0162430722246</v>
       </c>
       <c r="I28" t="n">
         <v>69.8265127967797</v>
@@ -6421,13 +6421,13 @@
         <v>939.7118587055531</v>
       </c>
       <c r="W28" t="n">
-        <v>757.5003473359458</v>
+        <v>757.5003473359457</v>
       </c>
       <c r="X28" t="n">
-        <v>630.192773344315</v>
+        <v>630.1927733443149</v>
       </c>
       <c r="Y28" t="n">
-        <v>512.1025046495856</v>
+        <v>512.1025046495855</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1801.557898288068</v>
+        <v>1801.557898288067</v>
       </c>
       <c r="C29" t="n">
-        <v>1523.569029733869</v>
+        <v>1523.569029733868</v>
       </c>
       <c r="D29" t="n">
-        <v>1254.689955074086</v>
+        <v>1254.689955074085</v>
       </c>
       <c r="E29" t="n">
-        <v>963.8491252931863</v>
+        <v>963.8491252931858</v>
       </c>
       <c r="F29" t="n">
-        <v>653.6428247163503</v>
+        <v>653.6428247163499</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0077192960816</v>
+        <v>342.0077192960812</v>
       </c>
       <c r="H29" t="n">
         <v>118.4976579636606</v>
       </c>
       <c r="I29" t="n">
-        <v>69.8265127967797</v>
+        <v>69.82651279677968</v>
       </c>
       <c r="J29" t="n">
         <v>287.2895117349284</v>
@@ -6467,37 +6467,37 @@
         <v>694.6334852690225</v>
       </c>
       <c r="L29" t="n">
-        <v>1225.439431603592</v>
+        <v>1139.8239324086</v>
       </c>
       <c r="M29" t="n">
-        <v>1810.732257624866</v>
+        <v>1725.116758429874</v>
       </c>
       <c r="N29" t="n">
-        <v>2382.576438634833</v>
+        <v>2296.960939439841</v>
       </c>
       <c r="O29" t="n">
-        <v>2875.987097467933</v>
+        <v>2790.371598272941</v>
       </c>
       <c r="P29" t="n">
-        <v>3279.871467121561</v>
+        <v>3194.25596792657</v>
       </c>
       <c r="Q29" t="n">
-        <v>3446.023698693665</v>
+        <v>3446.023698693664</v>
       </c>
       <c r="R29" t="n">
-        <v>3491.325639838985</v>
+        <v>3491.325639838984</v>
       </c>
       <c r="S29" t="n">
-        <v>3419.981999780813</v>
+        <v>3419.981999780812</v>
       </c>
       <c r="T29" t="n">
-        <v>3301.861714282255</v>
+        <v>3301.861714282254</v>
       </c>
       <c r="U29" t="n">
-        <v>3150.963187390246</v>
+        <v>3150.963187390245</v>
       </c>
       <c r="V29" t="n">
-        <v>2917.928803399181</v>
+        <v>2917.92880339918</v>
       </c>
       <c r="W29" t="n">
         <v>2659.338763369775</v>
@@ -6506,7 +6506,7 @@
         <v>2381.253513004262</v>
       </c>
       <c r="Y29" t="n">
-        <v>2091.656547693094</v>
+        <v>2091.656547693093</v>
       </c>
     </row>
     <row r="30">
@@ -6531,25 +6531,25 @@
         <v>354.2343666901139</v>
       </c>
       <c r="G30" t="n">
-        <v>225.7862266216699</v>
+        <v>225.7862266216698</v>
       </c>
       <c r="H30" t="n">
-        <v>128.5560556508837</v>
+        <v>128.5560556508836</v>
       </c>
       <c r="I30" t="n">
-        <v>69.8265127967797</v>
+        <v>69.82651279677968</v>
       </c>
       <c r="J30" t="n">
         <v>156.0414139424773</v>
       </c>
       <c r="K30" t="n">
-        <v>429.9030311037421</v>
+        <v>429.9030311037422</v>
       </c>
       <c r="L30" t="n">
-        <v>855.3872483594779</v>
+        <v>855.387248359478</v>
       </c>
       <c r="M30" t="n">
-        <v>964.3454638259478</v>
+        <v>1410.043776001333</v>
       </c>
       <c r="N30" t="n">
         <v>1547.077002329742</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.4920260781993</v>
+        <v>432.4920260781992</v>
       </c>
       <c r="C31" t="n">
-        <v>366.820946652873</v>
+        <v>366.8209466528729</v>
       </c>
       <c r="D31" t="n">
         <v>317.6939435936292</v>
       </c>
       <c r="E31" t="n">
-        <v>269.6298194679416</v>
+        <v>269.6298194679415</v>
       </c>
       <c r="F31" t="n">
-        <v>221.0940546067122</v>
+        <v>221.0940546067121</v>
       </c>
       <c r="G31" t="n">
         <v>156.3542404167507</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0162430722247</v>
+        <v>103.0162430722246</v>
       </c>
       <c r="I31" t="n">
-        <v>69.8265127967797</v>
+        <v>69.82651279677968</v>
       </c>
       <c r="J31" t="n">
         <v>129.127743214569</v>
@@ -6625,22 +6625,22 @@
         <v>291.3727685155286</v>
       </c>
       <c r="L31" t="n">
-        <v>528.1055170060625</v>
+        <v>528.1055170060627</v>
       </c>
       <c r="M31" t="n">
-        <v>784.0864760050492</v>
+        <v>784.0864760050493</v>
       </c>
       <c r="N31" t="n">
         <v>1039.637630187052</v>
       </c>
       <c r="O31" t="n">
-        <v>1272.538984324675</v>
+        <v>1272.538984324676</v>
       </c>
       <c r="P31" t="n">
         <v>1465.245689975048</v>
       </c>
       <c r="Q31" t="n">
-        <v>1548.641718968752</v>
+        <v>1548.641718968753</v>
       </c>
       <c r="R31" t="n">
         <v>1513.633275443384</v>
@@ -6655,16 +6655,16 @@
         <v>1096.502273034137</v>
       </c>
       <c r="V31" t="n">
-        <v>939.7118587055533</v>
+        <v>939.7118587055534</v>
       </c>
       <c r="W31" t="n">
-        <v>757.5003473359459</v>
+        <v>757.500347335946</v>
       </c>
       <c r="X31" t="n">
-        <v>630.1927733443151</v>
+        <v>630.1927733443152</v>
       </c>
       <c r="Y31" t="n">
-        <v>512.1025046495856</v>
+        <v>512.1025046495855</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1778.754832093046</v>
+        <v>1778.754832093045</v>
       </c>
       <c r="C32" t="n">
-        <v>1503.887053604646</v>
+        <v>1503.887053604645</v>
       </c>
       <c r="D32" t="n">
-        <v>1238.129069010662</v>
+        <v>1238.129069010661</v>
       </c>
       <c r="E32" t="n">
-        <v>950.4093292955615</v>
+        <v>950.4093292955608</v>
       </c>
       <c r="F32" t="n">
-        <v>643.3241187845244</v>
+        <v>643.3241187845242</v>
       </c>
       <c r="G32" t="n">
-        <v>334.8101034300546</v>
+        <v>334.8101034300544</v>
       </c>
       <c r="H32" t="n">
-        <v>114.4211321634331</v>
+        <v>114.421132163433</v>
       </c>
       <c r="I32" t="n">
-        <v>68.87107706235139</v>
+        <v>68.87107706235138</v>
       </c>
       <c r="J32" t="n">
         <v>184.4576892007552</v>
       </c>
       <c r="K32" t="n">
-        <v>539.8333367381875</v>
+        <v>539.833336738185</v>
       </c>
       <c r="L32" t="n">
-        <v>1073.698263446247</v>
+        <v>1073.698263446245</v>
       </c>
       <c r="M32" t="n">
-        <v>1662.050069841011</v>
+        <v>1662.050069841008</v>
       </c>
       <c r="N32" t="n">
-        <v>2236.953231224467</v>
+        <v>2236.953231224466</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.422870431057</v>
+        <v>2733.422870431056</v>
       </c>
       <c r="P32" t="n">
-        <v>3140.366220458175</v>
+        <v>3140.366220458174</v>
       </c>
       <c r="Q32" t="n">
-        <v>3395.19293159876</v>
+        <v>3395.192931598759</v>
       </c>
       <c r="R32" t="n">
-        <v>3443.553853117569</v>
+        <v>3443.553853117568</v>
       </c>
       <c r="S32" t="n">
         <v>3375.331303125196</v>
       </c>
       <c r="T32" t="n">
-        <v>3260.332107692438</v>
+        <v>3260.332107692437</v>
       </c>
       <c r="U32" t="n">
-        <v>3112.554670866228</v>
+        <v>3112.554670866227</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.641376940962</v>
+        <v>2882.641376940961</v>
       </c>
       <c r="W32" t="n">
-        <v>2627.172426977356</v>
+        <v>2627.172426977355</v>
       </c>
       <c r="X32" t="n">
-        <v>2352.208266677642</v>
+        <v>2352.208266677641</v>
       </c>
       <c r="Y32" t="n">
-        <v>2065.732391432272</v>
+        <v>2065.732391432271</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>127.6006199164554</v>
       </c>
       <c r="I33" t="n">
-        <v>68.87107706235139</v>
+        <v>68.87107706235138</v>
       </c>
       <c r="J33" t="n">
-        <v>155.085978208049</v>
+        <v>68.87107706235138</v>
       </c>
       <c r="K33" t="n">
-        <v>428.9475953693138</v>
+        <v>342.7326942236162</v>
       </c>
       <c r="L33" t="n">
-        <v>854.4318126250496</v>
+        <v>768.216911479352</v>
       </c>
       <c r="M33" t="n">
-        <v>1409.088340266905</v>
+        <v>1322.873439121207</v>
       </c>
       <c r="N33" t="n">
         <v>1546.121566595314</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.6889598831768</v>
+        <v>409.6889598831763</v>
       </c>
       <c r="C34" t="n">
-        <v>347.1389705236498</v>
+        <v>347.1389705236493</v>
       </c>
       <c r="D34" t="n">
-        <v>301.1330575302052</v>
+        <v>301.1330575302047</v>
       </c>
       <c r="E34" t="n">
-        <v>256.1900234703166</v>
+        <v>256.1900234703163</v>
       </c>
       <c r="F34" t="n">
-        <v>210.7753486748864</v>
+        <v>210.7753486748861</v>
       </c>
       <c r="G34" t="n">
-        <v>149.1566245507241</v>
+        <v>149.1566245507239</v>
       </c>
       <c r="H34" t="n">
-        <v>98.9397172719972</v>
+        <v>98.9397172719971</v>
       </c>
       <c r="I34" t="n">
-        <v>68.87107706235139</v>
+        <v>68.87107706235138</v>
       </c>
       <c r="J34" t="n">
-        <v>68.87107706235139</v>
+        <v>131.2312878536305</v>
       </c>
       <c r="K34" t="n">
-        <v>222.1260094873755</v>
+        <v>296.53529352808</v>
       </c>
       <c r="L34" t="n">
-        <v>461.9177383513992</v>
+        <v>536.3270223921038</v>
       </c>
       <c r="M34" t="n">
-        <v>720.9576777238756</v>
+        <v>795.3669617645803</v>
       </c>
       <c r="N34" t="n">
-        <v>979.5678122793684</v>
+        <v>1053.977096320073</v>
       </c>
       <c r="O34" t="n">
-        <v>1215.528146790481</v>
+        <v>1215.52814679048</v>
       </c>
       <c r="P34" t="n">
-        <v>1411.293832814344</v>
+        <v>1411.293832814343</v>
       </c>
       <c r="Q34" t="n">
-        <v>1497.748842181538</v>
+        <v>1497.748842181537</v>
       </c>
       <c r="R34" t="n">
-        <v>1465.861488721968</v>
+        <v>1465.861488721967</v>
       </c>
       <c r="S34" t="n">
-        <v>1363.313887932329</v>
+        <v>1363.313887932328</v>
       </c>
       <c r="T34" t="n">
-        <v>1238.205195242452</v>
+        <v>1238.205195242451</v>
       </c>
       <c r="U34" t="n">
-        <v>1058.093756510119</v>
+        <v>1058.093756510118</v>
       </c>
       <c r="V34" t="n">
-        <v>904.4244322473342</v>
+        <v>904.4244322473334</v>
       </c>
       <c r="W34" t="n">
-        <v>725.3340109435259</v>
+        <v>725.3340109435252</v>
       </c>
       <c r="X34" t="n">
-        <v>601.1475270176943</v>
+        <v>601.1475270176936</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.178348388764</v>
+        <v>486.1783483887634</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1425.922431668987</v>
       </c>
       <c r="C35" t="n">
-        <v>1199.792591056316</v>
+        <v>1199.792591056317</v>
       </c>
       <c r="D35" t="n">
-        <v>982.7725443380626</v>
+        <v>982.7725443380632</v>
       </c>
       <c r="E35" t="n">
-        <v>743.790742498692</v>
+        <v>743.7907424986926</v>
       </c>
       <c r="F35" t="n">
-        <v>485.443469863385</v>
+        <v>485.4434698633854</v>
       </c>
       <c r="G35" t="n">
-        <v>225.667392384645</v>
+        <v>225.6673923846451</v>
       </c>
       <c r="H35" t="n">
         <v>54.01635899375341</v>
@@ -6938,10 +6938,10 @@
         <v>169.6029711321571</v>
       </c>
       <c r="K35" t="n">
-        <v>475.0705578665061</v>
+        <v>475.0705578665062</v>
       </c>
       <c r="L35" t="n">
-        <v>904.000117401331</v>
+        <v>904.0001174013311</v>
       </c>
       <c r="M35" t="n">
         <v>1387.41655662286</v>
@@ -6962,25 +6962,25 @@
         <v>2700.817949687671</v>
       </c>
       <c r="S35" t="n">
-        <v>2681.333337571028</v>
+        <v>2681.333337571029</v>
       </c>
       <c r="T35" t="n">
-        <v>2615.072080013999</v>
+        <v>2615.072080014</v>
       </c>
       <c r="U35" t="n">
         <v>2516.03258106352</v>
       </c>
       <c r="V35" t="n">
-        <v>2334.857225013983</v>
+        <v>2334.857225013984</v>
       </c>
       <c r="W35" t="n">
-        <v>2128.126212926107</v>
+        <v>2128.126212926108</v>
       </c>
       <c r="X35" t="n">
-        <v>1901.899990502123</v>
+        <v>1901.899990502124</v>
       </c>
       <c r="Y35" t="n">
-        <v>1664.162053132483</v>
+        <v>1664.162053132484</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7026,13 @@
         <v>1308.018721052609</v>
       </c>
       <c r="N36" t="n">
-        <v>1724.113999515823</v>
+        <v>1531.266848526716</v>
       </c>
       <c r="O36" t="n">
-        <v>2181.691279832922</v>
+        <v>1988.844128843815</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.258269825996</v>
+        <v>2343.411118836889</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.258269825996</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.18816612897987</v>
+        <v>82.18816612898014</v>
       </c>
       <c r="C37" t="n">
-        <v>68.37611464518275</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="D37" t="n">
-        <v>68.37611464518275</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="E37" t="n">
-        <v>68.37611464518275</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="F37" t="n">
-        <v>68.37611464518275</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="G37" t="n">
-        <v>55.49532839675036</v>
+        <v>55.49532839675044</v>
       </c>
       <c r="H37" t="n">
         <v>54.01635899375341</v>
@@ -7120,25 +7120,25 @@
         <v>778.875984955763</v>
       </c>
       <c r="S37" t="n">
-        <v>725.0663220418536</v>
+        <v>694.6475290480236</v>
       </c>
       <c r="T37" t="n">
-        <v>648.6955672277064</v>
+        <v>618.2767742338764</v>
       </c>
       <c r="U37" t="n">
-        <v>517.3220663711031</v>
+        <v>486.903273377273</v>
       </c>
       <c r="V37" t="n">
-        <v>412.3906799840483</v>
+        <v>381.9718869902181</v>
       </c>
       <c r="W37" t="n">
-        <v>282.03819655597</v>
+        <v>251.6194035621397</v>
       </c>
       <c r="X37" t="n">
-        <v>206.5896505058683</v>
+        <v>176.1708575120379</v>
       </c>
       <c r="Y37" t="n">
-        <v>109.9396167588371</v>
+        <v>109.9396167588375</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>1425.922431668987</v>
       </c>
       <c r="C38" t="n">
-        <v>1199.792591056316</v>
+        <v>1199.792591056317</v>
       </c>
       <c r="D38" t="n">
-        <v>982.7725443380627</v>
+        <v>982.7725443380629</v>
       </c>
       <c r="E38" t="n">
-        <v>743.790742498692</v>
+        <v>743.7907424986922</v>
       </c>
       <c r="F38" t="n">
-        <v>485.443469863385</v>
+        <v>485.4434698633851</v>
       </c>
       <c r="G38" t="n">
-        <v>225.667392384645</v>
+        <v>225.6673923846452</v>
       </c>
       <c r="H38" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="I38" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="J38" t="n">
-        <v>169.6029711321561</v>
+        <v>169.6029711321573</v>
       </c>
       <c r="K38" t="n">
-        <v>475.0705578665052</v>
+        <v>475.0705578665064</v>
       </c>
       <c r="L38" t="n">
-        <v>904.00011740133</v>
+        <v>904.0001174013312</v>
       </c>
       <c r="M38" t="n">
-        <v>1387.416556622859</v>
+        <v>1387.41655662286</v>
       </c>
       <c r="N38" t="n">
-        <v>1857.384350833081</v>
+        <v>1857.384350833082</v>
       </c>
       <c r="O38" t="n">
-        <v>2248.918622866437</v>
+        <v>2248.918622866438</v>
       </c>
       <c r="P38" t="n">
-        <v>2550.92660572032</v>
+        <v>2550.926605720322</v>
       </c>
       <c r="Q38" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="R38" t="n">
-        <v>2700.81794968767</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="S38" t="n">
-        <v>2681.333337571027</v>
+        <v>2681.333337571029</v>
       </c>
       <c r="T38" t="n">
-        <v>2615.072080013998</v>
+        <v>2615.072080014</v>
       </c>
       <c r="U38" t="n">
         <v>2516.03258106352</v>
       </c>
       <c r="V38" t="n">
-        <v>2334.857225013983</v>
+        <v>2334.857225013984</v>
       </c>
       <c r="W38" t="n">
-        <v>2128.126212926107</v>
+        <v>2128.126212926108</v>
       </c>
       <c r="X38" t="n">
         <v>1901.899990502123</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.162053132483</v>
+        <v>1664.162053132484</v>
       </c>
     </row>
     <row r="39">
@@ -7239,7 +7239,7 @@
         <v>473.1180109372133</v>
       </c>
       <c r="F39" t="n">
-        <v>338.4242128870876</v>
+        <v>338.4242128870877</v>
       </c>
       <c r="G39" t="n">
         <v>209.9760728186436</v>
@@ -7248,19 +7248,19 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I39" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="J39" t="n">
-        <v>140.2312601394511</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="K39" t="n">
-        <v>414.0928773007158</v>
+        <v>327.8779761550183</v>
       </c>
       <c r="L39" t="n">
-        <v>839.5770945564516</v>
+        <v>753.3621934107541</v>
       </c>
       <c r="M39" t="n">
-        <v>1394.233622198307</v>
+        <v>1308.018721052609</v>
       </c>
       <c r="N39" t="n">
         <v>1531.266848526716</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.18816612897984</v>
+        <v>82.18816612898017</v>
       </c>
       <c r="C40" t="n">
-        <v>68.37611464518272</v>
+        <v>68.37611464518295</v>
       </c>
       <c r="D40" t="n">
-        <v>68.37611464518272</v>
+        <v>68.37611464518295</v>
       </c>
       <c r="E40" t="n">
-        <v>68.37611464518272</v>
+        <v>68.37611464518295</v>
       </c>
       <c r="F40" t="n">
-        <v>68.37611464518272</v>
+        <v>68.37611464518295</v>
       </c>
       <c r="G40" t="n">
-        <v>55.49532839675034</v>
+        <v>55.49532839675047</v>
       </c>
       <c r="H40" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="I40" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="J40" t="n">
-        <v>54.01635899375339</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="K40" t="n">
-        <v>114.3849974949681</v>
+        <v>114.3849974949682</v>
       </c>
       <c r="L40" t="n">
-        <v>249.2413591857571</v>
+        <v>249.2413591857572</v>
       </c>
       <c r="M40" t="n">
-        <v>403.3459313849988</v>
+        <v>403.3459313849989</v>
       </c>
       <c r="N40" t="n">
-        <v>557.0206987672568</v>
+        <v>557.0206987672569</v>
       </c>
       <c r="O40" t="n">
-        <v>688.0456661051351</v>
+        <v>688.0456661051353</v>
       </c>
       <c r="P40" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="Q40" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="R40" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="S40" t="n">
-        <v>725.0663220418536</v>
+        <v>694.6475290480236</v>
       </c>
       <c r="T40" t="n">
-        <v>648.6955672277064</v>
+        <v>618.2767742338764</v>
       </c>
       <c r="U40" t="n">
-        <v>517.3220663711031</v>
+        <v>486.903273377273</v>
       </c>
       <c r="V40" t="n">
-        <v>412.3906799840483</v>
+        <v>381.9718869902181</v>
       </c>
       <c r="W40" t="n">
-        <v>282.03819655597</v>
+        <v>251.6194035621397</v>
       </c>
       <c r="X40" t="n">
-        <v>206.5896505058683</v>
+        <v>176.1708575120379</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.358409752668</v>
+        <v>109.9396167588375</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>1425.922431668986</v>
       </c>
       <c r="C41" t="n">
-        <v>1199.792591056315</v>
+        <v>1199.792591056316</v>
       </c>
       <c r="D41" t="n">
-        <v>982.7725443380614</v>
+        <v>982.7725443380623</v>
       </c>
       <c r="E41" t="n">
-        <v>743.7907424986909</v>
+        <v>743.7907424986915</v>
       </c>
       <c r="F41" t="n">
         <v>485.4434698633843</v>
       </c>
       <c r="G41" t="n">
-        <v>225.6673923846451</v>
+        <v>225.6673923846452</v>
       </c>
       <c r="H41" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="I41" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J41" t="n">
         <v>169.6029711321571</v>
       </c>
       <c r="K41" t="n">
-        <v>475.0705578665061</v>
+        <v>475.0705578665063</v>
       </c>
       <c r="L41" t="n">
-        <v>904.000117401331</v>
+        <v>904.0001174013312</v>
       </c>
       <c r="M41" t="n">
         <v>1387.41655662286</v>
@@ -7442,19 +7442,19 @@
         <v>2615.072080013998</v>
       </c>
       <c r="U41" t="n">
-        <v>2516.032581063519</v>
+        <v>2516.03258106352</v>
       </c>
       <c r="V41" t="n">
-        <v>2334.857225013982</v>
+        <v>2334.857225013983</v>
       </c>
       <c r="W41" t="n">
-        <v>2128.126212926106</v>
+        <v>2128.126212926107</v>
       </c>
       <c r="X41" t="n">
         <v>1901.899990502122</v>
       </c>
       <c r="Y41" t="n">
-        <v>1664.162053132482</v>
+        <v>1664.162053132483</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I42" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J42" t="n">
-        <v>140.2312601394511</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="K42" t="n">
-        <v>414.0928773007159</v>
+        <v>327.8779761550183</v>
       </c>
       <c r="L42" t="n">
-        <v>839.5770945564516</v>
+        <v>753.3621934107541</v>
       </c>
       <c r="M42" t="n">
-        <v>1394.233622198307</v>
+        <v>1308.018721052609</v>
       </c>
       <c r="N42" t="n">
         <v>1531.266848526716</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.18816612898014</v>
+        <v>112.6069591228101</v>
       </c>
       <c r="C43" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901285</v>
       </c>
       <c r="D43" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901285</v>
       </c>
       <c r="E43" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901285</v>
       </c>
       <c r="F43" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901285</v>
       </c>
       <c r="G43" t="n">
-        <v>55.49532839675044</v>
+        <v>85.91412139058033</v>
       </c>
       <c r="H43" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="I43" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J43" t="n">
-        <v>54.01635899375341</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="K43" t="n">
         <v>114.3849974949681</v>
       </c>
       <c r="L43" t="n">
-        <v>249.2413591857571</v>
+        <v>249.2413591857572</v>
       </c>
       <c r="M43" t="n">
-        <v>403.3459313849988</v>
+        <v>403.3459313849989</v>
       </c>
       <c r="N43" t="n">
-        <v>557.0206987672568</v>
+        <v>557.0206987672569</v>
       </c>
       <c r="O43" t="n">
-        <v>688.0456661051351</v>
+        <v>688.0456661051353</v>
       </c>
       <c r="P43" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="Q43" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="R43" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="S43" t="n">
-        <v>725.0663220418536</v>
+        <v>725.0663220418537</v>
       </c>
       <c r="T43" t="n">
         <v>648.6955672277064</v>
@@ -7606,13 +7606,13 @@
         <v>412.3906799840481</v>
       </c>
       <c r="W43" t="n">
-        <v>251.6194035621397</v>
+        <v>282.0381965559696</v>
       </c>
       <c r="X43" t="n">
-        <v>176.1708575120379</v>
+        <v>206.5896505058679</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.9396167588375</v>
+        <v>140.3584097526675</v>
       </c>
     </row>
     <row r="44">
@@ -7731,7 +7731,7 @@
         <v>414.0928773007159</v>
       </c>
       <c r="L45" t="n">
-        <v>839.5770945564516</v>
+        <v>839.5770945564517</v>
       </c>
       <c r="M45" t="n">
         <v>1394.233622198307</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.18816612898014</v>
+        <v>112.6069591228102</v>
       </c>
       <c r="C46" t="n">
         <v>68.37611464518292</v>
@@ -7828,28 +7828,28 @@
         <v>778.875984955763</v>
       </c>
       <c r="R46" t="n">
-        <v>748.4571919619329</v>
+        <v>778.875984955763</v>
       </c>
       <c r="S46" t="n">
-        <v>694.6475290480236</v>
+        <v>725.0663220418536</v>
       </c>
       <c r="T46" t="n">
-        <v>618.2767742338764</v>
+        <v>648.6955672277064</v>
       </c>
       <c r="U46" t="n">
-        <v>486.903273377273</v>
+        <v>517.322066371103</v>
       </c>
       <c r="V46" t="n">
-        <v>381.9718869902181</v>
+        <v>412.3906799840481</v>
       </c>
       <c r="W46" t="n">
-        <v>251.6194035621397</v>
+        <v>282.0381965559698</v>
       </c>
       <c r="X46" t="n">
-        <v>176.1708575120379</v>
+        <v>206.589650505868</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.9396167588375</v>
+        <v>140.3584097526676</v>
       </c>
     </row>
   </sheetData>
@@ -8456,13 +8456,13 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>203.0206155432522</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>197.8585175523677</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
         <v>198.8977434604743</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K9" t="n">
         <v>123.9391158470206</v>
@@ -8538,7 +8538,7 @@
         <v>124.5183802515017</v>
       </c>
       <c r="M9" t="n">
-        <v>127.4268492419938</v>
+        <v>126.9443059417775</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
@@ -8547,7 +8547,7 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>120.3146094042809</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8611,22 +8611,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>116.2836756436975</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
         <v>121.53674615886</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574291</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N10" t="n">
-        <v>103.744504878002</v>
+        <v>115.6874515583558</v>
       </c>
       <c r="O10" t="n">
         <v>124.4388841724762</v>
       </c>
       <c r="P10" t="n">
-        <v>123.8469499702863</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>103.0714460485405</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8696,7 +8696,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>418.1456946905064</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>226.5417426828555</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>175.4853535299068</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>172.9447713179478</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>78.30537204740509</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>172.9447713179476</v>
+        <v>172.9447713179473</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9164,7 +9164,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425135</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229272</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>172.9447713179476</v>
+        <v>172.9447713179473</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236953</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K21" t="n">
-        <v>88.399594796879</v>
+        <v>175.4853535299064</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.30537204740511</v>
+        <v>78.30537204740509</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236953</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406823</v>
+        <v>584.367593540682</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>172.9447713179476</v>
+        <v>172.9447713179473</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>172.9447713179478</v>
+        <v>260.0305300509755</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>155.2162675463282</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>172.9447713179476</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>172.9447713179478</v>
+        <v>260.0305300509758</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>76.83258720950356</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>454.825632060174</v>
+        <v>260.0305300509753</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.30537204740511</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236948</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10838,7 +10838,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229286</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>172.9447713179476</v>
+        <v>260.0305300509753</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>172.9447713179476</v>
+        <v>260.0305300509753</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>172.9447713179476</v>
+        <v>172.9447713179473</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>152.9843645116023</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>284.1260243564841</v>
       </c>
       <c r="E11" t="n">
-        <v>305.8681619263896</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>239.2107011623955</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.21278979893525</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>248.6397805944535</v>
       </c>
       <c r="W11" t="n">
-        <v>273.9398800724104</v>
+        <v>273.9398800724103</v>
       </c>
       <c r="X11" t="n">
-        <v>293.240138305157</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.79357341598947</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>52.59409953341375</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>35.3612637447668</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>144.8832253714184</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>85.30702536637878</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>198.3251366992103</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>143.9702386950134</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>293.1447203119561</v>
       </c>
       <c r="D14" t="n">
-        <v>284.1260243564841</v>
+        <v>144.9650729158196</v>
       </c>
       <c r="E14" t="n">
-        <v>289.2091749276493</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>239.2107011623955</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.56594410088921</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>134.8748230868716</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>293.240138305157</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>304.6367361013557</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>66.57147347195031</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>65.51922332772976</v>
+        <v>65.51922332772975</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98614765591607</v>
+        <v>65.98614765591606</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>82.02815649136082</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>70.74035781437973</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.79357341598946</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>30.18961235155598</v>
+        <v>52.59409953341375</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>199.33594395345</v>
+        <v>39.94084252181199</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.547562078485498e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19146.91578768261</v>
+        <v>19146.9157876826</v>
       </c>
       <c r="C2" t="n">
         <v>19146.91578768261</v>
@@ -26326,7 +26326,7 @@
         <v>16872.42660330594</v>
       </c>
       <c r="G2" t="n">
-        <v>19190.60151235452</v>
+        <v>19190.60151235451</v>
       </c>
       <c r="H2" t="n">
         <v>19190.60151235453</v>
@@ -26335,7 +26335,7 @@
         <v>19190.60151235452</v>
       </c>
       <c r="J2" t="n">
-        <v>19190.60151235456</v>
+        <v>19190.60151235457</v>
       </c>
       <c r="K2" t="n">
         <v>19190.60151235453</v>
@@ -26353,7 +26353,7 @@
         <v>19190.60151235453</v>
       </c>
       <c r="P2" t="n">
-        <v>19190.60151235453</v>
+        <v>19190.60151235452</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>3709.837527318327</v>
       </c>
       <c r="E3" t="n">
-        <v>357147.4969845472</v>
+        <v>357147.4969845473</v>
       </c>
       <c r="F3" t="n">
-        <v>12028.22113062395</v>
+        <v>12028.22113062398</v>
       </c>
       <c r="G3" t="n">
-        <v>55420.94248433019</v>
+        <v>55420.94248433014</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>78611.30900564831</v>
+        <v>78611.30900564833</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57892.84581644313</v>
+        <v>57892.84581644311</v>
       </c>
       <c r="M3" t="n">
-        <v>147153.2244248484</v>
+        <v>147153.2244248483</v>
       </c>
       <c r="N3" t="n">
-        <v>10281.91548711222</v>
+        <v>10281.91548711238</v>
       </c>
       <c r="O3" t="n">
-        <v>26903.41048516058</v>
+        <v>26903.41048516069</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26479,22 +26479,22 @@
         <v>48456.45393157421</v>
       </c>
       <c r="F5" t="n">
-        <v>51008.8081498369</v>
+        <v>51008.80814983691</v>
       </c>
       <c r="G5" t="n">
-        <v>56832.78716698084</v>
+        <v>56832.78716698085</v>
       </c>
       <c r="H5" t="n">
-        <v>56832.78716698084</v>
+        <v>56832.78716698085</v>
       </c>
       <c r="I5" t="n">
-        <v>56832.78716698084</v>
+        <v>56832.78716698085</v>
       </c>
       <c r="J5" t="n">
         <v>64532.36480346459</v>
       </c>
       <c r="K5" t="n">
-        <v>64532.36480346459</v>
+        <v>64532.36480346457</v>
       </c>
       <c r="L5" t="n">
         <v>64065.99669683332</v>
@@ -26503,7 +26503,7 @@
         <v>56832.78716698085</v>
       </c>
       <c r="N5" t="n">
-        <v>56832.78716698084</v>
+        <v>56832.78716698087</v>
       </c>
       <c r="O5" t="n">
         <v>56832.78716698085</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-402476.34359485</v>
+        <v>-402480.7121673173</v>
       </c>
       <c r="C6" t="n">
-        <v>-402476.34359485</v>
+        <v>-402480.7121673172</v>
       </c>
       <c r="D6" t="n">
         <v>-406085.3398584896</v>
       </c>
       <c r="E6" t="n">
-        <v>-608463.2338747056</v>
+        <v>-608727.4712681401</v>
       </c>
       <c r="F6" t="n">
-        <v>-269561.3390530145</v>
+        <v>-269793.1565439194</v>
       </c>
       <c r="G6" t="n">
         <v>-369194.6409260575</v>
@@ -26543,22 +26543,22 @@
         <v>-313773.6984417273</v>
       </c>
       <c r="J6" t="n">
-        <v>-401120.5307715435</v>
+        <v>-401120.5307715436</v>
       </c>
       <c r="K6" t="n">
         <v>-322509.2217658953</v>
       </c>
       <c r="L6" t="n">
-        <v>-379871.7318146847</v>
+        <v>-379871.7318146846</v>
       </c>
       <c r="M6" t="n">
-        <v>-460926.9228665758</v>
+        <v>-460926.9228665756</v>
       </c>
       <c r="N6" t="n">
-        <v>-324055.6139288396</v>
+        <v>-324055.6139288397</v>
       </c>
       <c r="O6" t="n">
-        <v>-340677.1089268879</v>
+        <v>-340677.108926888</v>
       </c>
       <c r="P6" t="n">
         <v>-313773.6984417273</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="F2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="G2" t="n">
         <v>154.2458788739773</v>
@@ -26707,13 +26707,13 @@
         <v>154.2458788739773</v>
       </c>
       <c r="J2" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="K2" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="L2" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="M2" t="n">
         <v>154.2458788739773</v>
@@ -26722,7 +26722,7 @@
         <v>154.2458788739773</v>
       </c>
       <c r="O2" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="P2" t="n">
         <v>154.2458788739773</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="F3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="G3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="H3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="I3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="J3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="K3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="L3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="M3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="N3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="O3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="P3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
     </row>
     <row r="4">
@@ -26799,34 +26799,34 @@
         <v>633.2249772531233</v>
       </c>
       <c r="F4" t="n">
-        <v>675.2044874219175</v>
+        <v>675.2044874219176</v>
       </c>
       <c r="G4" t="n">
-        <v>675.2044874219175</v>
+        <v>675.2044874219176</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2044874219175</v>
+        <v>675.2044874219176</v>
       </c>
       <c r="I4" t="n">
-        <v>675.2044874219175</v>
+        <v>675.2044874219176</v>
       </c>
       <c r="J4" t="n">
         <v>872.8314099597462</v>
       </c>
       <c r="K4" t="n">
-        <v>872.8314099597462</v>
+        <v>872.831409959746</v>
       </c>
       <c r="L4" t="n">
-        <v>860.8884632793923</v>
+        <v>860.8884632793921</v>
       </c>
       <c r="M4" t="n">
         <v>675.2044874219176</v>
       </c>
       <c r="N4" t="n">
-        <v>675.2044874219174</v>
+        <v>675.204487421918</v>
       </c>
       <c r="O4" t="n">
-        <v>675.2044874219176</v>
+        <v>675.2044874219177</v>
       </c>
       <c r="P4" t="n">
         <v>675.2044874219176</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>69.27617810541274</v>
+        <v>69.27617810541267</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>33.62926310645081</v>
+        <v>33.62926310645089</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.36605727055391</v>
+        <v>72.3660572705539</v>
       </c>
       <c r="M2" t="n">
-        <v>48.25055849697263</v>
+        <v>48.25055849697247</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.62926310645072</v>
+        <v>33.62926310645086</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>621.2820305727694</v>
       </c>
       <c r="F4" t="n">
-        <v>41.97951016879426</v>
+        <v>41.97951016879438</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>197.6269225378287</v>
+        <v>197.6269225378286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>435.5980547152947</v>
+        <v>435.5980547152949</v>
       </c>
       <c r="N4" t="n">
-        <v>41.97951016879404</v>
+        <v>41.97951016879472</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>69.27617810541274</v>
+        <v>69.27617810541267</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.62926310645081</v>
+        <v>33.62926310645089</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>621.2820305727694</v>
       </c>
       <c r="N4" t="n">
-        <v>41.97951016879426</v>
+        <v>41.97951016879438</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.7889569587513</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>210.172410125945</v>
+        <v>221.6056881531746</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>240.393536242792</v>
       </c>
       <c r="V8" t="n">
-        <v>333.0998127098937</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>366.2668923933677</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S9" t="n">
         <v>139.3285454370332</v>
@@ -27986,7 +27986,7 @@
         <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
-        <v>204.366897797319</v>
+        <v>205.7904970416172</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -27995,7 +27995,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>185.4184708049276</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>155.9768631625826</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>139.598227560161</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>27.63262049679216</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>218.9042169721241</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>272.3753904354372</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>246.1850047168077</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>272.7754900317192</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="C11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="D11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="E11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="F11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="G11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="H11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="I11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="T11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="U11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="V11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="W11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="X11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="C13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="D13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="E13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="F13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="G13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="H13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="I13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="J13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="K13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="L13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="M13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="N13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="O13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="P13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="R13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="S13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="T13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="U13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="V13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="W13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="X13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="C14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="D14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="E14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="F14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="G14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="H14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="I14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="T14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="U14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="V14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="W14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="X14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="C16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="D16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="E16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="F16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="G16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="H16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="I16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="J16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="K16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="L16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="M16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="N16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="O16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="P16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="R16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="S16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="T16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="U16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="V16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="W16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="X16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856459</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S17" t="n">
         <v>154.2458788739773</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100855</v>
       </c>
       <c r="H19" t="n">
         <v>154.2458788739773</v>
@@ -28743,7 +28743,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J19" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,10 +28767,10 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R19" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S19" t="n">
-        <v>124.131273810085</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="T19" t="n">
         <v>154.2458788739773</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S20" t="n">
         <v>154.2458788739773</v>
@@ -28980,7 +28980,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J22" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,22 +29001,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.66702808690973</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S22" t="n">
         <v>154.2458788739773</v>
       </c>
       <c r="T22" t="n">
-        <v>154.2458788739773</v>
+        <v>142.7983018969953</v>
       </c>
       <c r="U22" t="n">
         <v>154.2458788739773</v>
       </c>
       <c r="V22" t="n">
-        <v>124.131273810085</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="W22" t="n">
         <v>154.2458788739773</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S23" t="n">
         <v>154.2458788739773</v>
@@ -29214,10 +29214,10 @@
         <v>154.2458788739773</v>
       </c>
       <c r="I25" t="n">
-        <v>124.3156972075714</v>
+        <v>135.7632741845541</v>
       </c>
       <c r="J25" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>18.66702808690973</v>
       </c>
       <c r="R25" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S25" t="n">
         <v>154.2458788739773</v>
@@ -29250,7 +29250,7 @@
         <v>154.2458788739773</v>
       </c>
       <c r="U25" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100854</v>
       </c>
       <c r="V25" t="n">
         <v>154.2458788739773</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="C26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="D26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="E26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="F26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="G26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="H26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="I26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="J26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="K26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="L26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="M26" t="n">
-        <v>16.42513899470111</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="N26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="O26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="P26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.9054412118635</v>
+        <v>16.42513899470009</v>
       </c>
       <c r="R26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="S26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="T26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="U26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="V26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="W26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="X26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="C28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="D28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="E28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="F28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="H28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="I28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="J28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118634</v>
       </c>
       <c r="K28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="L28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="M28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="N28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="O28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="P28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="R28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="S28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="T28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="U28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="V28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="W28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="X28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="C29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="D29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="E29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="F29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="G29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="H29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="I29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="J29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="K29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="L29" t="n">
-        <v>102.9054412118635</v>
+        <v>16.42513899469981</v>
       </c>
       <c r="M29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="N29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="O29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="P29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="Q29" t="n">
-        <v>16.42513899470109</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="R29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="S29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="T29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="U29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="V29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="W29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="X29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="C31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="D31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="E31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="F31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="G31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="H31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="I31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="J31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="K31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="L31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="M31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="N31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="O31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="P31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="R31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="S31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="T31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="U31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="V31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="W31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="X31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.9054412118635</v>
+        <v>102.9054412118636</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="C32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="D32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="E32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="F32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="G32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="H32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="I32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>50.41218262937701</v>
+        <v>50.41218262937446</v>
       </c>
       <c r="L32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="M32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="N32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="O32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="P32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="R32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="S32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="T32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="U32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="V32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="W32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="X32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="C34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="D34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="E34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="F34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="G34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="H34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="I34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="J34" t="n">
-        <v>43.00520846662184</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="K34" t="n">
-        <v>93.82453931697918</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="L34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="M34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="N34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="O34" t="n">
-        <v>105.9953203770047</v>
+        <v>30.83442740659422</v>
       </c>
       <c r="P34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="R34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="S34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="T34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="U34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="V34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="W34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="X34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.9953203770047</v>
+        <v>105.9953203770048</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S35" t="n">
         <v>154.2458788739773</v>
@@ -30165,7 +30165,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J37" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,10 +30189,10 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R37" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100856</v>
       </c>
       <c r="T37" t="n">
         <v>154.2458788739773</v>
@@ -30210,7 +30210,7 @@
         <v>154.2458788739773</v>
       </c>
       <c r="Y37" t="n">
-        <v>124.1312738100848</v>
+        <v>154.2458788739773</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S38" t="n">
         <v>154.2458788739773</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.1312738100847</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="C40" t="n">
         <v>154.2458788739773</v>
@@ -30402,7 +30402,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J40" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,10 +30426,10 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R40" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100853</v>
       </c>
       <c r="T40" t="n">
         <v>154.2458788739773</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="C41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="D41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="E41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="F41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="G41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="H41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="I41" t="n">
         <v>151.0898749270756</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="T41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="U41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="V41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="W41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="X41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="Y41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="C43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="H43" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100857</v>
       </c>
       <c r="I43" t="n">
         <v>135.7632741845541</v>
       </c>
       <c r="J43" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R43" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="T43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="U43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="V43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="W43" t="n">
-        <v>124.1312738100855</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="X43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739772</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S44" t="n">
         <v>154.2458788739773</v>
@@ -30855,7 +30855,7 @@
         <v>154.2458788739773</v>
       </c>
       <c r="C46" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100855</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30876,7 +30876,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J46" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R46" t="n">
-        <v>107.4491952380866</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S46" t="n">
         <v>154.2458788739773</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H11" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I11" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J11" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K11" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L11" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M11" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N11" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O11" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P11" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R11" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S11" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T11" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I12" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J12" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K12" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L12" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M12" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N12" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O12" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P12" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R12" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S12" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T12" t="n">
         <v>1.118746702387675</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H13" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I13" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J13" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K13" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L13" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M13" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N13" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O13" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P13" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R13" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S13" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H14" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I14" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J14" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K14" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L14" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M14" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N14" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O14" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P14" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R14" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S14" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T14" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H15" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I15" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J15" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K15" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L15" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M15" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N15" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O15" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P15" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R15" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S15" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T15" t="n">
         <v>1.118746702387675</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H16" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I16" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J16" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K16" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M16" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N16" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O16" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P16" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R16" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S16" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H17" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I17" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J17" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K17" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L17" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M17" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N17" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O17" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P17" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R17" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S17" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T17" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I18" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J18" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K18" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L18" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M18" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N18" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O18" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P18" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R18" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S18" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T18" t="n">
         <v>1.118746702387675</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H19" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I19" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J19" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K19" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M19" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N19" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O19" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P19" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R19" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S19" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H20" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I20" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J20" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K20" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L20" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M20" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N20" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O20" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P20" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R20" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S20" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T20" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H21" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I21" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J21" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K21" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L21" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M21" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N21" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O21" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P21" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R21" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S21" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T21" t="n">
         <v>1.118746702387675</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H22" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I22" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J22" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K22" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M22" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N22" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O22" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P22" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R22" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S22" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H23" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I23" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J23" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K23" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L23" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M23" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N23" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O23" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P23" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R23" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S23" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T23" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H24" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I24" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J24" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K24" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L24" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M24" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N24" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O24" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P24" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R24" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S24" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T24" t="n">
         <v>1.118746702387675</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H25" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I25" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J25" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K25" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M25" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N25" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O25" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P25" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R25" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S25" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H26" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I26" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J26" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K26" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L26" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M26" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N26" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O26" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P26" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R26" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S26" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T26" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H27" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I27" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J27" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K27" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L27" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M27" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N27" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O27" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P27" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R27" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S27" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T27" t="n">
         <v>1.118746702387675</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H28" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I28" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J28" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K28" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L28" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M28" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N28" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O28" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P28" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R28" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S28" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H29" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I29" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J29" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K29" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L29" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M29" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N29" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O29" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P29" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R29" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S29" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T29" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H30" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I30" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J30" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K30" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L30" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M30" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N30" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O30" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P30" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R30" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S30" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T30" t="n">
         <v>1.118746702387675</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H31" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I31" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J31" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K31" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L31" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M31" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N31" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O31" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P31" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R31" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S31" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H32" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I32" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J32" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K32" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L32" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M32" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N32" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O32" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P32" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R32" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S32" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T32" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H33" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I33" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J33" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K33" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L33" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M33" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N33" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O33" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P33" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R33" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S33" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T33" t="n">
         <v>1.118746702387675</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H34" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I34" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J34" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K34" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L34" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M34" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N34" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O34" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P34" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R34" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S34" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H35" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I35" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J35" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K35" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L35" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M35" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N35" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O35" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P35" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R35" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S35" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T35" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H36" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I36" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J36" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K36" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L36" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M36" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N36" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O36" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P36" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R36" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S36" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T36" t="n">
         <v>1.118746702387675</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H37" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I37" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J37" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K37" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L37" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M37" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N37" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O37" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P37" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R37" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S37" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H38" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I38" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J38" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K38" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L38" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M38" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N38" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O38" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P38" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R38" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S38" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T38" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H39" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I39" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J39" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K39" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L39" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M39" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N39" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O39" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P39" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R39" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S39" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T39" t="n">
         <v>1.118746702387675</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H40" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I40" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J40" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K40" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L40" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M40" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N40" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O40" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P40" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R40" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S40" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H41" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I41" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J41" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K41" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L41" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M41" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N41" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O41" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P41" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R41" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S41" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T41" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H42" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I42" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J42" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K42" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L42" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M42" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N42" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O42" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P42" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R42" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S42" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T42" t="n">
         <v>1.118746702387675</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H43" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I43" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J43" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K43" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L43" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M43" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N43" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O43" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P43" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R43" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S43" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H44" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I44" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J44" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K44" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L44" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M44" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N44" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O44" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P44" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R44" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S44" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T44" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,43 +34436,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H45" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I45" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J45" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K45" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L45" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M45" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N45" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O45" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P45" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R45" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S45" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T45" t="n">
         <v>1.118746702387675</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H46" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I46" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J46" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K46" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L46" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M46" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N46" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O46" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P46" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R46" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S46" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35176,13 +35176,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>11.94294668035388</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K9" t="n">
         <v>11.94294668035388</v>
@@ -35258,7 +35258,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="M9" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="O10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="P10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.7541536751554</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L11" t="n">
         <v>433.2621813483079</v>
       </c>
       <c r="M11" t="n">
-        <v>322.077534706924</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N11" t="n">
         <v>474.7149436466892</v>
@@ -35425,10 +35425,10 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P11" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.4053979468177</v>
+        <v>101.9376527717971</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>276.6278961224897</v>
+        <v>108.3084415360444</v>
       </c>
       <c r="L12" t="n">
         <v>429.7820376320563</v>
@@ -35498,16 +35498,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N12" t="n">
-        <v>138.4174003317267</v>
+        <v>588.6177156603985</v>
       </c>
       <c r="O12" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P12" t="n">
         <v>358.1484747404786</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.7951020091987</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.96449230194274</v>
+        <v>41.96449230194277</v>
       </c>
       <c r="K13" t="n">
         <v>145.9481234970643</v>
@@ -35586,7 +35586,7 @@
         <v>176.7174975873807</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.30267268165484</v>
+        <v>66.30267268165487</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.7541536751554</v>
+        <v>116.7541536751551</v>
       </c>
       <c r="K14" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L14" t="n">
         <v>433.2621813483079</v>
@@ -35662,7 +35662,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P14" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q14" t="n">
         <v>151.4053979468177</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K15" t="n">
         <v>276.6278961224897</v>
@@ -35735,10 +35735,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N15" t="n">
-        <v>138.4174003317265</v>
+        <v>138.4174003317263</v>
       </c>
       <c r="O15" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P15" t="n">
         <v>358.1484747404786</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.96449230194274</v>
+        <v>41.96449230194277</v>
       </c>
       <c r="K16" t="n">
         <v>145.9481234970643</v>
       </c>
       <c r="L16" t="n">
-        <v>221.1882479309777</v>
+        <v>221.1882479309778</v>
       </c>
       <c r="M16" t="n">
         <v>240.6308848082027</v>
@@ -35820,10 +35820,10 @@
         <v>217.3181526250073</v>
       </c>
       <c r="P16" t="n">
-        <v>176.7174975873807</v>
+        <v>176.7174975873808</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.30267268165484</v>
+        <v>66.30267268165487</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K17" t="n">
-        <v>308.5531179134833</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L17" t="n">
         <v>433.2621813483079</v>
@@ -35899,7 +35899,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P17" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392761</v>
       </c>
       <c r="Q17" t="n">
         <v>151.4053979468177</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K18" t="n">
         <v>276.6278961224897</v>
@@ -35972,10 +35972,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N18" t="n">
-        <v>138.4174003317265</v>
+        <v>138.4174003317263</v>
       </c>
       <c r="O18" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P18" t="n">
         <v>358.1484747404786</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L19" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M19" t="n">
         <v>155.6611840396381</v>
@@ -36057,7 +36057,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P19" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.7541536751547</v>
+        <v>116.7541536751554</v>
       </c>
       <c r="K20" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L20" t="n">
         <v>433.2621813483079</v>
@@ -36136,7 +36136,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P20" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q20" t="n">
         <v>151.4053979468177</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.22268280301651</v>
+        <v>108.308441536044</v>
       </c>
       <c r="L21" t="n">
         <v>429.7820376320563</v>
@@ -36209,10 +36209,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N21" t="n">
-        <v>588.6177156603984</v>
+        <v>588.6177156603985</v>
       </c>
       <c r="O21" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P21" t="n">
         <v>358.1484747404786</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L22" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M22" t="n">
         <v>155.6611840396381</v>
@@ -36294,7 +36294,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P22" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.7541536751547</v>
+        <v>116.7541536751554</v>
       </c>
       <c r="K23" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L23" t="n">
         <v>433.2621813483079</v>
       </c>
       <c r="M23" t="n">
-        <v>488.2994335570999</v>
+        <v>488.2994335570997</v>
       </c>
       <c r="N23" t="n">
         <v>474.7149436466892</v>
@@ -36373,7 +36373,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P23" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q23" t="n">
         <v>151.4053979468177</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K24" t="n">
         <v>276.6278961224897</v>
@@ -36446,10 +36446,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N24" t="n">
-        <v>138.4174003317265</v>
+        <v>138.4174003317263</v>
       </c>
       <c r="O24" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P24" t="n">
         <v>358.1484747404786</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L25" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M25" t="n">
         <v>155.6611840396381</v>
@@ -36531,7 +36531,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P25" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>411.4585591253475</v>
       </c>
       <c r="L26" t="n">
-        <v>536.1676225601714</v>
+        <v>536.1676225601715</v>
       </c>
       <c r="M26" t="n">
-        <v>504.724572551801</v>
+        <v>591.2048747689635</v>
       </c>
       <c r="N26" t="n">
-        <v>577.6203848585527</v>
+        <v>577.6203848585528</v>
       </c>
       <c r="O26" t="n">
         <v>498.3946048819195</v>
@@ -36613,10 +36613,10 @@
         <v>407.9640097511398</v>
       </c>
       <c r="Q26" t="n">
-        <v>254.3108391586812</v>
+        <v>167.8305369415178</v>
       </c>
       <c r="R26" t="n">
-        <v>45.75953651042445</v>
+        <v>45.75953651042448</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>276.6278961224897</v>
@@ -36683,10 +36683,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N27" t="n">
-        <v>138.4174003317267</v>
+        <v>225.5031590647545</v>
       </c>
       <c r="O27" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P27" t="n">
         <v>358.1484747404786</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.90023274524163</v>
+        <v>59.90023274524157</v>
       </c>
       <c r="K28" t="n">
-        <v>163.8838639403632</v>
+        <v>163.8838639403633</v>
       </c>
       <c r="L28" t="n">
         <v>239.1239883742767</v>
@@ -36771,7 +36771,7 @@
         <v>194.6532380306797</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.23841312495381</v>
+        <v>84.23841312495384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>411.4585591253475</v>
       </c>
       <c r="L29" t="n">
-        <v>536.1676225601714</v>
+        <v>449.6873203430077</v>
       </c>
       <c r="M29" t="n">
-        <v>591.2048747689634</v>
+        <v>591.2048747689635</v>
       </c>
       <c r="N29" t="n">
-        <v>577.6203848585527</v>
+        <v>577.6203848585528</v>
       </c>
       <c r="O29" t="n">
         <v>498.3946048819195</v>
@@ -36850,10 +36850,10 @@
         <v>407.9640097511398</v>
       </c>
       <c r="Q29" t="n">
-        <v>167.8305369415188</v>
+        <v>254.3108391586813</v>
       </c>
       <c r="R29" t="n">
-        <v>45.75953651042445</v>
+        <v>45.75953651042448</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K30" t="n">
         <v>276.6278961224897</v>
@@ -36917,13 +36917,13 @@
         <v>429.7820376320563</v>
       </c>
       <c r="M30" t="n">
-        <v>110.0588035014848</v>
+        <v>560.2591188301566</v>
       </c>
       <c r="N30" t="n">
-        <v>588.6177156603984</v>
+        <v>138.4174003317265</v>
       </c>
       <c r="O30" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P30" t="n">
         <v>358.1484747404786</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.90023274524171</v>
+        <v>59.90023274524174</v>
       </c>
       <c r="K31" t="n">
         <v>163.8838639403633</v>
@@ -37008,7 +37008,7 @@
         <v>194.6532380306797</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.23841312495381</v>
+        <v>84.23841312495384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K32" t="n">
-        <v>358.9653005428609</v>
+        <v>358.9653005428584</v>
       </c>
       <c r="L32" t="n">
-        <v>539.2575017253125</v>
+        <v>539.2575017253127</v>
       </c>
       <c r="M32" t="n">
-        <v>594.2947539341045</v>
+        <v>594.2947539341046</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7102640236939</v>
+        <v>580.7102640236941</v>
       </c>
       <c r="O32" t="n">
-        <v>501.4844840470606</v>
+        <v>501.4844840470607</v>
       </c>
       <c r="P32" t="n">
-        <v>411.0538889162809</v>
+        <v>411.0538889162811</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.4007183238224</v>
+        <v>257.4007183238225</v>
       </c>
       <c r="R32" t="n">
-        <v>48.84941567556562</v>
+        <v>48.84941567556571</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>276.6278961224897</v>
@@ -37157,10 +37157,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N33" t="n">
-        <v>138.4174003317267</v>
+        <v>225.5031590647547</v>
       </c>
       <c r="O33" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P33" t="n">
         <v>358.1484747404786</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>62.99011191038296</v>
       </c>
       <c r="K34" t="n">
-        <v>154.8029620454789</v>
+        <v>166.9737431055045</v>
       </c>
       <c r="L34" t="n">
         <v>242.2138675394179</v>
       </c>
       <c r="M34" t="n">
-        <v>261.6565044166428</v>
+        <v>261.6565044166429</v>
       </c>
       <c r="N34" t="n">
-        <v>261.2223581368613</v>
+        <v>261.2223581368614</v>
       </c>
       <c r="O34" t="n">
-        <v>238.3437722334475</v>
+        <v>163.182879263037</v>
       </c>
       <c r="P34" t="n">
-        <v>197.7431171958208</v>
+        <v>197.743117195821</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.32829229009498</v>
+        <v>87.32829229009506</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K35" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L35" t="n">
         <v>433.2621813483079</v>
@@ -37321,7 +37321,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P35" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q35" t="n">
         <v>151.4053979468177</v>
@@ -37394,16 +37394,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N36" t="n">
-        <v>420.2982610739529</v>
+        <v>225.5031590647542</v>
       </c>
       <c r="O36" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P36" t="n">
         <v>358.1484747404786</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L37" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M37" t="n">
         <v>155.6611840396381</v>
@@ -37479,7 +37479,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P37" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.7541536751543</v>
+        <v>116.7541536751554</v>
       </c>
       <c r="K38" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L38" t="n">
         <v>433.2621813483079</v>
@@ -37558,7 +37558,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P38" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392774</v>
       </c>
       <c r="Q38" t="n">
         <v>151.4053979468177</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>276.6278961224897</v>
@@ -37631,10 +37631,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N39" t="n">
-        <v>138.4174003317265</v>
+        <v>225.5031590647542</v>
       </c>
       <c r="O39" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P39" t="n">
         <v>358.1484747404786</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L40" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M40" t="n">
         <v>155.6611840396381</v>
@@ -37716,7 +37716,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P40" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K41" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L41" t="n">
         <v>433.2621813483079</v>
@@ -37795,7 +37795,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P41" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q41" t="n">
         <v>151.4053979468177</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>276.6278961224897</v>
@@ -37868,10 +37868,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N42" t="n">
-        <v>138.4174003317265</v>
+        <v>225.5031590647542</v>
       </c>
       <c r="O42" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P42" t="n">
         <v>358.1484747404786</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L43" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M43" t="n">
         <v>155.6611840396381</v>
@@ -37953,7 +37953,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P43" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K44" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L44" t="n">
         <v>433.2621813483079</v>
@@ -38032,7 +38032,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P44" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q44" t="n">
         <v>151.4053979468177</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K45" t="n">
         <v>276.6278961224897</v>
@@ -38105,10 +38105,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N45" t="n">
-        <v>138.4174003317265</v>
+        <v>138.4174003317263</v>
       </c>
       <c r="O45" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P45" t="n">
         <v>358.1484747404786</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L46" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M46" t="n">
         <v>155.6611840396381</v>
@@ -38190,7 +38190,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P46" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
